--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.494537986109549</v>
+        <v>2.494537986109606</v>
       </c>
       <c r="C2">
-        <v>1.198599523735766</v>
+        <v>1.198599523735481</v>
       </c>
       <c r="D2">
-        <v>0.2456302442305542</v>
+        <v>0.24563024423054</v>
       </c>
       <c r="E2">
-        <v>0.1173229702419185</v>
+        <v>0.1173229702419079</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>2.777316481874422</v>
       </c>
       <c r="H2">
-        <v>1.865102866913887</v>
+        <v>1.865102866913901</v>
       </c>
       <c r="I2">
-        <v>0.01873553315796705</v>
+        <v>0.01873553315798482</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9665671137407585</v>
+        <v>0.9665671137407514</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142750157035493</v>
+        <v>2.142750157035778</v>
       </c>
       <c r="C3">
-        <v>1.027639918493975</v>
+        <v>1.027639918494287</v>
       </c>
       <c r="D3">
-        <v>0.2132077325903623</v>
+        <v>0.2132077325906323</v>
       </c>
       <c r="E3">
-        <v>0.1035493336040538</v>
+        <v>0.1035493336040396</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.466446548655142</v>
+        <v>2.466446548655114</v>
       </c>
       <c r="H3">
-        <v>1.677780305004532</v>
+        <v>1.677780305004518</v>
       </c>
       <c r="I3">
-        <v>0.01699712518899688</v>
+        <v>0.01699712518895602</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8314114085952369</v>
+        <v>0.8314114085952582</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.930984673816653</v>
+        <v>1.930984673816454</v>
       </c>
       <c r="C4">
-        <v>0.9250859040211026</v>
+        <v>0.9250859040218131</v>
       </c>
       <c r="D4">
-        <v>0.1938322460091371</v>
+        <v>0.1938322460088813</v>
       </c>
       <c r="E4">
-        <v>0.09536655791902504</v>
+        <v>0.09536655791898951</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.281896804430303</v>
+        <v>2.281896804430289</v>
       </c>
       <c r="H4">
         <v>1.566864396741622</v>
       </c>
       <c r="I4">
-        <v>0.01597305295558549</v>
+        <v>0.01597305295559526</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7503632820306265</v>
+        <v>0.7503632820306123</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.845586098376998</v>
+        <v>1.84558609837697</v>
       </c>
       <c r="C5">
-        <v>0.8838071791291782</v>
+        <v>0.8838071791289508</v>
       </c>
       <c r="D5">
-        <v>0.1860521812751585</v>
+        <v>0.1860521812750449</v>
       </c>
       <c r="E5">
-        <v>0.09209218287258381</v>
+        <v>0.09209218287258736</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.208078975599364</v>
+        <v>2.208078975599406</v>
       </c>
       <c r="H5">
-        <v>1.522568558655266</v>
+        <v>1.52256855865528</v>
       </c>
       <c r="I5">
-        <v>0.0155653133681799</v>
+        <v>0.01556531336816658</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7177512711605374</v>
+        <v>0.7177512711605445</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.831455395403736</v>
+        <v>1.831455395403765</v>
       </c>
       <c r="C6">
         <v>0.8769812809670157</v>
       </c>
       <c r="D6">
-        <v>0.1847667935538624</v>
+        <v>0.1847667935537629</v>
       </c>
       <c r="E6">
-        <v>0.09155186967918283</v>
+        <v>0.09155186967917928</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.195899855801599</v>
+        <v>2.195899855801628</v>
       </c>
       <c r="H6">
-        <v>1.515264332200246</v>
+        <v>1.51526433220026</v>
       </c>
       <c r="I6">
-        <v>0.01549815118949915</v>
+        <v>0.01549815118948406</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7123592335327658</v>
+        <v>0.7123592335327729</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.929829532284344</v>
+        <v>1.929829532284288</v>
       </c>
       <c r="C7">
-        <v>0.924527245744855</v>
+        <v>0.9245272457445708</v>
       </c>
       <c r="D7">
-        <v>0.1937268759262594</v>
+        <v>0.1937268759262167</v>
       </c>
       <c r="E7">
-        <v>0.09532216588047859</v>
+        <v>0.09532216588053544</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>1.56626350972742</v>
       </c>
       <c r="I7">
-        <v>0.01596751689228704</v>
+        <v>0.01596751689228526</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7499218707225879</v>
+        <v>0.7499218707226092</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.372256377057795</v>
+        <v>2.372256377057852</v>
       </c>
       <c r="C8">
-        <v>1.139090877415697</v>
+        <v>1.13909087741547</v>
       </c>
       <c r="D8">
-        <v>0.2343289541605458</v>
+        <v>0.2343289541606453</v>
       </c>
       <c r="E8">
-        <v>0.1125112887055693</v>
+        <v>0.1125112887055799</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>2.668686535597232</v>
       </c>
       <c r="H8">
-        <v>1.799581577236026</v>
+        <v>1.799581577236054</v>
       </c>
       <c r="I8">
-        <v>0.01812630278473826</v>
+        <v>0.01812630278473648</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9195175762717156</v>
+        <v>0.9195175762717227</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>3.282103363576084</v>
       </c>
       <c r="C9">
-        <v>1.583930586849874</v>
+        <v>1.583930586849704</v>
       </c>
       <c r="D9">
-        <v>0.3191103076138972</v>
+        <v>0.3191103076138404</v>
       </c>
       <c r="E9">
-        <v>0.1488499093721245</v>
+        <v>0.1488499093720854</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.489796574227796</v>
+        <v>3.489796574227853</v>
       </c>
       <c r="H9">
         <v>2.296241939940913</v>
       </c>
       <c r="I9">
-        <v>0.0227712684796213</v>
+        <v>0.02277126847962663</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.990491008040863</v>
+        <v>3.990491008040522</v>
       </c>
       <c r="C10">
-        <v>1.933494575288364</v>
+        <v>1.933494575288591</v>
       </c>
       <c r="D10">
-        <v>0.3860761638464112</v>
+        <v>0.386076163846667</v>
       </c>
       <c r="E10">
-        <v>0.1778928865167657</v>
+        <v>0.1778928865167444</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.147082239149739</v>
+        <v>4.147082239149711</v>
       </c>
       <c r="H10">
-        <v>2.695700556638513</v>
+        <v>2.695700556638499</v>
       </c>
       <c r="I10">
-        <v>0.02654568882856978</v>
+        <v>0.02654568882853781</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.547242109491123</v>
+        <v>1.547242109491094</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.325326767771799</v>
+        <v>4.325326767771685</v>
       </c>
       <c r="C11">
-        <v>2.099689314606223</v>
+        <v>2.099689314606508</v>
       </c>
       <c r="D11">
-        <v>0.4179763375424272</v>
+        <v>0.4179763375424557</v>
       </c>
       <c r="E11">
-        <v>0.1918182040848038</v>
+        <v>0.1918182040847753</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.462504081029351</v>
+        <v>4.462504081029408</v>
       </c>
       <c r="H11">
-        <v>2.887864628282415</v>
+        <v>2.887864628282401</v>
       </c>
       <c r="I11">
-        <v>0.02837185863408109</v>
+        <v>0.02837185863404734</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.678344754620753</v>
+        <v>1.678344754620738</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.454330307033047</v>
+        <v>4.454330307033104</v>
       </c>
       <c r="C12">
-        <v>2.163884720494821</v>
+        <v>2.163884720494707</v>
       </c>
       <c r="D12">
-        <v>0.4303057055822705</v>
+        <v>0.4303057055829242</v>
       </c>
       <c r="E12">
-        <v>0.1972148327269991</v>
+        <v>0.1972148327270133</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.584785839689545</v>
+        <v>4.584785839689516</v>
       </c>
       <c r="H12">
-        <v>2.962434721769824</v>
+        <v>2.962434721769796</v>
       </c>
       <c r="I12">
-        <v>0.0290822156832391</v>
+        <v>0.02908221568325153</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.728955115445189</v>
+        <v>1.728955115445231</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.426441694999255</v>
+        <v>4.426441694998971</v>
       </c>
       <c r="C13">
-        <v>2.149998874536266</v>
+        <v>2.149998874535697</v>
       </c>
       <c r="D13">
-        <v>0.4276384916873042</v>
+        <v>0.4276384916872473</v>
       </c>
       <c r="E13">
-        <v>0.1960467093567928</v>
+        <v>0.196046709356871</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.558315463955637</v>
+        <v>4.558315463955694</v>
       </c>
       <c r="H13">
-        <v>2.946289211997055</v>
+        <v>2.946289211997069</v>
       </c>
       <c r="I13">
-        <v>0.02892833400139594</v>
+        <v>0.0289283340013764</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.718009292283199</v>
+        <v>1.718009292283213</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,10 +871,10 @@
         <v>4.335893150709467</v>
       </c>
       <c r="C14">
-        <v>2.104943964110475</v>
+        <v>2.104943964110134</v>
       </c>
       <c r="D14">
-        <v>0.4189854084195019</v>
+        <v>0.4189854084194735</v>
       </c>
       <c r="E14">
         <v>0.1922595813122356</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.47250433442349</v>
+        <v>4.472504334423462</v>
       </c>
       <c r="H14">
-        <v>2.893961530403232</v>
+        <v>2.893961530403246</v>
       </c>
       <c r="I14">
         <v>0.02842990277695989</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.682488071394275</v>
+        <v>1.68248807139426</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.280730280725209</v>
+        <v>4.280730280725493</v>
       </c>
       <c r="C15">
-        <v>2.077518313374412</v>
+        <v>2.077518313374469</v>
       </c>
       <c r="D15">
-        <v>0.4137190398993198</v>
+        <v>0.413719039899064</v>
       </c>
       <c r="E15">
-        <v>0.1899566124609251</v>
+        <v>0.1899566124609748</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>2.862153787464052</v>
       </c>
       <c r="I15">
-        <v>0.02812715395834964</v>
+        <v>0.02812715395835141</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>3.968894388600802</v>
       </c>
       <c r="C16">
-        <v>1.92279637604787</v>
+        <v>1.922796376048154</v>
       </c>
       <c r="D16">
-        <v>0.3840238138629388</v>
+        <v>0.3840238138631946</v>
       </c>
       <c r="E16">
-        <v>0.1769988848044193</v>
+        <v>0.1769988848043766</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.126837907069898</v>
+        <v>4.126837907069785</v>
       </c>
       <c r="H16">
-        <v>2.683376783322174</v>
+        <v>2.683376783322117</v>
       </c>
       <c r="I16">
-        <v>0.02642879537726728</v>
+        <v>0.02642879537721932</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781078092678626</v>
+        <v>3.781078092678399</v>
       </c>
       <c r="C17">
-        <v>1.829867397617534</v>
+        <v>1.829867397617818</v>
       </c>
       <c r="D17">
-        <v>0.3662029102360833</v>
+        <v>0.3662029102362681</v>
       </c>
       <c r="E17">
-        <v>0.1692461321308727</v>
+        <v>0.1692461321308301</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.951309713354277</v>
+        <v>3.951309713354306</v>
       </c>
       <c r="H17">
-        <v>2.57657530849599</v>
+        <v>2.576575308496018</v>
       </c>
       <c r="I17">
-        <v>0.02541691700443316</v>
+        <v>0.02541691700446691</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.465443664816334</v>
+        <v>1.465443664816377</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>3.674208110562688</v>
       </c>
       <c r="C18">
-        <v>1.777076594830589</v>
+        <v>1.777076594830419</v>
       </c>
       <c r="D18">
-        <v>0.3560850874249155</v>
+        <v>0.3560850874247166</v>
       </c>
       <c r="E18">
-        <v>0.1648526671310506</v>
+        <v>0.164852667131079</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.851862836658</v>
+        <v>3.851862836657972</v>
       </c>
       <c r="H18">
-        <v>2.516108591131612</v>
+        <v>2.516108591131641</v>
       </c>
       <c r="I18">
-        <v>0.02484496892642696</v>
+        <v>0.02484496892646426</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.423759165497884</v>
+        <v>1.42375916549787</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63821150652899</v>
+        <v>3.638211506528933</v>
       </c>
       <c r="C19">
-        <v>1.759309506382465</v>
+        <v>1.759309506382749</v>
       </c>
       <c r="D19">
-        <v>0.3526809064825756</v>
+        <v>0.3526809064823055</v>
       </c>
       <c r="E19">
-        <v>0.1633758281744164</v>
+        <v>0.1633758281744377</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818438412711799</v>
+        <v>3.818438412711714</v>
       </c>
       <c r="H19">
-        <v>2.495792683054432</v>
+        <v>2.49579268305439</v>
       </c>
       <c r="I19">
-        <v>0.02465295840907089</v>
+        <v>0.02465295840909576</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.409727998191826</v>
+        <v>1.409727998191855</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800949060080995</v>
+        <v>3.800949060080939</v>
       </c>
       <c r="C20">
-        <v>1.839690068236507</v>
+        <v>1.83969006823645</v>
       </c>
       <c r="D20">
-        <v>0.3680859988960634</v>
+        <v>0.3680859988956655</v>
       </c>
       <c r="E20">
-        <v>0.17006448614368</v>
+        <v>0.1700644861437226</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.969835290746033</v>
+        <v>3.969835290746062</v>
       </c>
       <c r="H20">
         <v>2.587842879802693</v>
       </c>
       <c r="I20">
-        <v>0.02552357143358996</v>
+        <v>0.02552357143369655</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.473198808184435</v>
+        <v>1.473198808184407</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.36242596033469</v>
+        <v>4.362425960334747</v>
       </c>
       <c r="C21">
-        <v>2.118141410561464</v>
+        <v>2.118141410561634</v>
       </c>
       <c r="D21">
-        <v>0.4215198769969675</v>
+        <v>0.4215198769971948</v>
       </c>
       <c r="E21">
         <v>0.1933684177456882</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.497627858660024</v>
+        <v>4.497627858660053</v>
       </c>
       <c r="H21">
-        <v>2.909279875428368</v>
+        <v>2.909279875428354</v>
       </c>
       <c r="I21">
-        <v>0.02857576526329275</v>
+        <v>0.02857576526326611</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.74249999971488</v>
+        <v>4.742499999714539</v>
       </c>
       <c r="C22">
-        <v>2.307616676814064</v>
+        <v>2.307616676813836</v>
       </c>
       <c r="D22">
-        <v>0.4579221588708151</v>
+        <v>0.4579221588711562</v>
       </c>
       <c r="E22">
-        <v>0.2093309302491022</v>
+        <v>0.2093309302491448</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>4.8594059612617</v>
       </c>
       <c r="H22">
-        <v>3.130041672092915</v>
+        <v>3.130041672092929</v>
       </c>
       <c r="I22">
-        <v>0.03068219745524736</v>
+        <v>0.0306821974552669</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.842204326439131</v>
+        <v>1.842204326439145</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.538294677004444</v>
+        <v>4.538294677004615</v>
       </c>
       <c r="C23">
-        <v>2.205716788046004</v>
+        <v>2.205716788046288</v>
       </c>
       <c r="D23">
-        <v>0.4383417884891117</v>
+        <v>0.4383417884892822</v>
       </c>
       <c r="E23">
-        <v>0.200736498510004</v>
+        <v>0.2007364985100111</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.6645953651458</v>
+        <v>4.664595365145743</v>
       </c>
       <c r="H23">
-        <v>3.011125057385087</v>
+        <v>3.011125057385058</v>
       </c>
       <c r="I23">
-        <v>0.02954654165140091</v>
+        <v>0.02954654165140624</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.761925053826801</v>
+        <v>1.761925053826815</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>3.791961973233242</v>
       </c>
       <c r="C24">
-        <v>1.835247276671168</v>
+        <v>1.835247276671566</v>
       </c>
       <c r="D24">
-        <v>0.3672342600187761</v>
+        <v>0.367234260018634</v>
       </c>
       <c r="E24">
-        <v>0.1696943114093301</v>
+        <v>0.1696943114093585</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>3.961455343818812</v>
       </c>
       <c r="H24">
-        <v>2.582745920732833</v>
+        <v>2.582745920732847</v>
       </c>
       <c r="I24">
-        <v>0.02547532268659225</v>
+        <v>0.02547532268660468</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.469691198478642</v>
+        <v>1.469691198478657</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.030111451036703</v>
+        <v>3.030111451036646</v>
       </c>
       <c r="C25">
         <v>1.46025576950808</v>
       </c>
       <c r="D25">
-        <v>0.2954781292800988</v>
+        <v>0.2954781292796724</v>
       </c>
       <c r="E25">
-        <v>0.1386679895646523</v>
+        <v>0.1386679895646132</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.259567278107966</v>
+        <v>3.25956727810798</v>
       </c>
       <c r="H25">
         <v>2.156684816669042</v>
       </c>
       <c r="I25">
-        <v>0.02146020157129058</v>
+        <v>0.0214602015713119</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.494537986109606</v>
+        <v>2.494537986109549</v>
       </c>
       <c r="C2">
-        <v>1.198599523735481</v>
+        <v>1.198599523735766</v>
       </c>
       <c r="D2">
-        <v>0.24563024423054</v>
+        <v>0.2456302442305542</v>
       </c>
       <c r="E2">
-        <v>0.1173229702419079</v>
+        <v>0.1173229702419185</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,10 +430,10 @@
         <v>2.777316481874422</v>
       </c>
       <c r="H2">
-        <v>1.865102866913901</v>
+        <v>1.865102866913887</v>
       </c>
       <c r="I2">
-        <v>0.01873553315798482</v>
+        <v>0.01873553315796705</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9665671137407514</v>
+        <v>0.9665671137407585</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,28 +450,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142750157035778</v>
+        <v>2.142750157035493</v>
       </c>
       <c r="C3">
-        <v>1.027639918494287</v>
+        <v>1.027639918493975</v>
       </c>
       <c r="D3">
-        <v>0.2132077325906323</v>
+        <v>0.2132077325903623</v>
       </c>
       <c r="E3">
-        <v>0.1035493336040396</v>
+        <v>0.1035493336040538</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.466446548655114</v>
+        <v>2.466446548655142</v>
       </c>
       <c r="H3">
-        <v>1.677780305004518</v>
+        <v>1.677780305004532</v>
       </c>
       <c r="I3">
-        <v>0.01699712518895602</v>
+        <v>0.01699712518899688</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8314114085952582</v>
+        <v>0.8314114085952369</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,28 +488,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.930984673816454</v>
+        <v>1.930984673816653</v>
       </c>
       <c r="C4">
-        <v>0.9250859040218131</v>
+        <v>0.9250859040211026</v>
       </c>
       <c r="D4">
-        <v>0.1938322460088813</v>
+        <v>0.1938322460091371</v>
       </c>
       <c r="E4">
-        <v>0.09536655791898951</v>
+        <v>0.09536655791902504</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.281896804430289</v>
+        <v>2.281896804430303</v>
       </c>
       <c r="H4">
         <v>1.566864396741622</v>
       </c>
       <c r="I4">
-        <v>0.01597305295559526</v>
+        <v>0.01597305295558549</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7503632820306123</v>
+        <v>0.7503632820306265</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,28 +526,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.84558609837697</v>
+        <v>1.845586098376998</v>
       </c>
       <c r="C5">
-        <v>0.8838071791289508</v>
+        <v>0.8838071791291782</v>
       </c>
       <c r="D5">
-        <v>0.1860521812750449</v>
+        <v>0.1860521812751585</v>
       </c>
       <c r="E5">
-        <v>0.09209218287258736</v>
+        <v>0.09209218287258381</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.208078975599406</v>
+        <v>2.208078975599364</v>
       </c>
       <c r="H5">
-        <v>1.52256855865528</v>
+        <v>1.522568558655266</v>
       </c>
       <c r="I5">
-        <v>0.01556531336816658</v>
+        <v>0.0155653133681799</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7177512711605445</v>
+        <v>0.7177512711605374</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,28 +564,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.831455395403765</v>
+        <v>1.831455395403736</v>
       </c>
       <c r="C6">
         <v>0.8769812809670157</v>
       </c>
       <c r="D6">
-        <v>0.1847667935537629</v>
+        <v>0.1847667935538624</v>
       </c>
       <c r="E6">
-        <v>0.09155186967917928</v>
+        <v>0.09155186967918283</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.195899855801628</v>
+        <v>2.195899855801599</v>
       </c>
       <c r="H6">
-        <v>1.51526433220026</v>
+        <v>1.515264332200246</v>
       </c>
       <c r="I6">
-        <v>0.01549815118948406</v>
+        <v>0.01549815118949915</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7123592335327729</v>
+        <v>0.7123592335327658</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.929829532284288</v>
+        <v>1.929829532284344</v>
       </c>
       <c r="C7">
-        <v>0.9245272457445708</v>
+        <v>0.924527245744855</v>
       </c>
       <c r="D7">
-        <v>0.1937268759262167</v>
+        <v>0.1937268759262594</v>
       </c>
       <c r="E7">
-        <v>0.09532216588053544</v>
+        <v>0.09532216588047859</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>1.56626350972742</v>
       </c>
       <c r="I7">
-        <v>0.01596751689228526</v>
+        <v>0.01596751689228704</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7499218707226092</v>
+        <v>0.7499218707225879</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.372256377057852</v>
+        <v>2.372256377057795</v>
       </c>
       <c r="C8">
-        <v>1.13909087741547</v>
+        <v>1.139090877415697</v>
       </c>
       <c r="D8">
-        <v>0.2343289541606453</v>
+        <v>0.2343289541605458</v>
       </c>
       <c r="E8">
-        <v>0.1125112887055799</v>
+        <v>0.1125112887055693</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,10 +658,10 @@
         <v>2.668686535597232</v>
       </c>
       <c r="H8">
-        <v>1.799581577236054</v>
+        <v>1.799581577236026</v>
       </c>
       <c r="I8">
-        <v>0.01812630278473648</v>
+        <v>0.01812630278473826</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9195175762717227</v>
+        <v>0.9195175762717156</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>3.282103363576084</v>
       </c>
       <c r="C9">
-        <v>1.583930586849704</v>
+        <v>1.583930586849874</v>
       </c>
       <c r="D9">
-        <v>0.3191103076138404</v>
+        <v>0.3191103076138972</v>
       </c>
       <c r="E9">
-        <v>0.1488499093720854</v>
+        <v>0.1488499093721245</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.489796574227853</v>
+        <v>3.489796574227796</v>
       </c>
       <c r="H9">
         <v>2.296241939940913</v>
       </c>
       <c r="I9">
-        <v>0.02277126847962663</v>
+        <v>0.0227712684796213</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -716,28 +716,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.990491008040522</v>
+        <v>3.990491008040863</v>
       </c>
       <c r="C10">
-        <v>1.933494575288591</v>
+        <v>1.933494575288364</v>
       </c>
       <c r="D10">
-        <v>0.386076163846667</v>
+        <v>0.3860761638464112</v>
       </c>
       <c r="E10">
-        <v>0.1778928865167444</v>
+        <v>0.1778928865167657</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.147082239149711</v>
+        <v>4.147082239149739</v>
       </c>
       <c r="H10">
-        <v>2.695700556638499</v>
+        <v>2.695700556638513</v>
       </c>
       <c r="I10">
-        <v>0.02654568882853781</v>
+        <v>0.02654568882856978</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.547242109491094</v>
+        <v>1.547242109491123</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,28 +754,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.325326767771685</v>
+        <v>4.325326767771799</v>
       </c>
       <c r="C11">
-        <v>2.099689314606508</v>
+        <v>2.099689314606223</v>
       </c>
       <c r="D11">
-        <v>0.4179763375424557</v>
+        <v>0.4179763375424272</v>
       </c>
       <c r="E11">
-        <v>0.1918182040847753</v>
+        <v>0.1918182040848038</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.462504081029408</v>
+        <v>4.462504081029351</v>
       </c>
       <c r="H11">
-        <v>2.887864628282401</v>
+        <v>2.887864628282415</v>
       </c>
       <c r="I11">
-        <v>0.02837185863404734</v>
+        <v>0.02837185863408109</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.678344754620738</v>
+        <v>1.678344754620753</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,28 +792,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.454330307033104</v>
+        <v>4.454330307033047</v>
       </c>
       <c r="C12">
-        <v>2.163884720494707</v>
+        <v>2.163884720494821</v>
       </c>
       <c r="D12">
-        <v>0.4303057055829242</v>
+        <v>0.4303057055822705</v>
       </c>
       <c r="E12">
-        <v>0.1972148327270133</v>
+        <v>0.1972148327269991</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.584785839689516</v>
+        <v>4.584785839689545</v>
       </c>
       <c r="H12">
-        <v>2.962434721769796</v>
+        <v>2.962434721769824</v>
       </c>
       <c r="I12">
-        <v>0.02908221568325153</v>
+        <v>0.0290822156832391</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.728955115445231</v>
+        <v>1.728955115445189</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,28 +830,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.426441694998971</v>
+        <v>4.426441694999255</v>
       </c>
       <c r="C13">
-        <v>2.149998874535697</v>
+        <v>2.149998874536266</v>
       </c>
       <c r="D13">
-        <v>0.4276384916872473</v>
+        <v>0.4276384916873042</v>
       </c>
       <c r="E13">
-        <v>0.196046709356871</v>
+        <v>0.1960467093567928</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.558315463955694</v>
+        <v>4.558315463955637</v>
       </c>
       <c r="H13">
-        <v>2.946289211997069</v>
+        <v>2.946289211997055</v>
       </c>
       <c r="I13">
-        <v>0.0289283340013764</v>
+        <v>0.02892833400139594</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.718009292283213</v>
+        <v>1.718009292283199</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,10 +871,10 @@
         <v>4.335893150709467</v>
       </c>
       <c r="C14">
-        <v>2.104943964110134</v>
+        <v>2.104943964110475</v>
       </c>
       <c r="D14">
-        <v>0.4189854084194735</v>
+        <v>0.4189854084195019</v>
       </c>
       <c r="E14">
         <v>0.1922595813122356</v>
@@ -883,10 +883,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.472504334423462</v>
+        <v>4.47250433442349</v>
       </c>
       <c r="H14">
-        <v>2.893961530403246</v>
+        <v>2.893961530403232</v>
       </c>
       <c r="I14">
         <v>0.02842990277695989</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.68248807139426</v>
+        <v>1.682488071394275</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.280730280725493</v>
+        <v>4.280730280725209</v>
       </c>
       <c r="C15">
-        <v>2.077518313374469</v>
+        <v>2.077518313374412</v>
       </c>
       <c r="D15">
-        <v>0.413719039899064</v>
+        <v>0.4137190398993198</v>
       </c>
       <c r="E15">
-        <v>0.1899566124609748</v>
+        <v>0.1899566124609251</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>2.862153787464052</v>
       </c>
       <c r="I15">
-        <v>0.02812715395835141</v>
+        <v>0.02812715395834964</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -947,25 +947,25 @@
         <v>3.968894388600802</v>
       </c>
       <c r="C16">
-        <v>1.922796376048154</v>
+        <v>1.92279637604787</v>
       </c>
       <c r="D16">
-        <v>0.3840238138631946</v>
+        <v>0.3840238138629388</v>
       </c>
       <c r="E16">
-        <v>0.1769988848043766</v>
+        <v>0.1769988848044193</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.126837907069785</v>
+        <v>4.126837907069898</v>
       </c>
       <c r="H16">
-        <v>2.683376783322117</v>
+        <v>2.683376783322174</v>
       </c>
       <c r="I16">
-        <v>0.02642879537721932</v>
+        <v>0.02642879537726728</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -982,28 +982,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781078092678399</v>
+        <v>3.781078092678626</v>
       </c>
       <c r="C17">
-        <v>1.829867397617818</v>
+        <v>1.829867397617534</v>
       </c>
       <c r="D17">
-        <v>0.3662029102362681</v>
+        <v>0.3662029102360833</v>
       </c>
       <c r="E17">
-        <v>0.1692461321308301</v>
+        <v>0.1692461321308727</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.951309713354306</v>
+        <v>3.951309713354277</v>
       </c>
       <c r="H17">
-        <v>2.576575308496018</v>
+        <v>2.57657530849599</v>
       </c>
       <c r="I17">
-        <v>0.02541691700446691</v>
+        <v>0.02541691700443316</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.465443664816377</v>
+        <v>1.465443664816334</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>3.674208110562688</v>
       </c>
       <c r="C18">
-        <v>1.777076594830419</v>
+        <v>1.777076594830589</v>
       </c>
       <c r="D18">
-        <v>0.3560850874247166</v>
+        <v>0.3560850874249155</v>
       </c>
       <c r="E18">
-        <v>0.164852667131079</v>
+        <v>0.1648526671310506</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.851862836657972</v>
+        <v>3.851862836658</v>
       </c>
       <c r="H18">
-        <v>2.516108591131641</v>
+        <v>2.516108591131612</v>
       </c>
       <c r="I18">
-        <v>0.02484496892646426</v>
+        <v>0.02484496892642696</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.42375916549787</v>
+        <v>1.423759165497884</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,28 +1058,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.638211506528933</v>
+        <v>3.63821150652899</v>
       </c>
       <c r="C19">
-        <v>1.759309506382749</v>
+        <v>1.759309506382465</v>
       </c>
       <c r="D19">
-        <v>0.3526809064823055</v>
+        <v>0.3526809064825756</v>
       </c>
       <c r="E19">
-        <v>0.1633758281744377</v>
+        <v>0.1633758281744164</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818438412711714</v>
+        <v>3.818438412711799</v>
       </c>
       <c r="H19">
-        <v>2.49579268305439</v>
+        <v>2.495792683054432</v>
       </c>
       <c r="I19">
-        <v>0.02465295840909576</v>
+        <v>0.02465295840907089</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.409727998191855</v>
+        <v>1.409727998191826</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800949060080939</v>
+        <v>3.800949060080995</v>
       </c>
       <c r="C20">
-        <v>1.83969006823645</v>
+        <v>1.839690068236507</v>
       </c>
       <c r="D20">
-        <v>0.3680859988956655</v>
+        <v>0.3680859988960634</v>
       </c>
       <c r="E20">
-        <v>0.1700644861437226</v>
+        <v>0.17006448614368</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.969835290746062</v>
+        <v>3.969835290746033</v>
       </c>
       <c r="H20">
         <v>2.587842879802693</v>
       </c>
       <c r="I20">
-        <v>0.02552357143369655</v>
+        <v>0.02552357143358996</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.473198808184407</v>
+        <v>1.473198808184435</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.362425960334747</v>
+        <v>4.36242596033469</v>
       </c>
       <c r="C21">
-        <v>2.118141410561634</v>
+        <v>2.118141410561464</v>
       </c>
       <c r="D21">
-        <v>0.4215198769971948</v>
+        <v>0.4215198769969675</v>
       </c>
       <c r="E21">
         <v>0.1933684177456882</v>
@@ -1149,13 +1149,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.497627858660053</v>
+        <v>4.497627858660024</v>
       </c>
       <c r="H21">
-        <v>2.909279875428354</v>
+        <v>2.909279875428368</v>
       </c>
       <c r="I21">
-        <v>0.02857576526326611</v>
+        <v>0.02857576526329275</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742499999714539</v>
+        <v>4.74249999971488</v>
       </c>
       <c r="C22">
-        <v>2.307616676813836</v>
+        <v>2.307616676814064</v>
       </c>
       <c r="D22">
-        <v>0.4579221588711562</v>
+        <v>0.4579221588708151</v>
       </c>
       <c r="E22">
-        <v>0.2093309302491448</v>
+        <v>0.2093309302491022</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>4.8594059612617</v>
       </c>
       <c r="H22">
-        <v>3.130041672092929</v>
+        <v>3.130041672092915</v>
       </c>
       <c r="I22">
-        <v>0.0306821974552669</v>
+        <v>0.03068219745524736</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.842204326439145</v>
+        <v>1.842204326439131</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.538294677004615</v>
+        <v>4.538294677004444</v>
       </c>
       <c r="C23">
-        <v>2.205716788046288</v>
+        <v>2.205716788046004</v>
       </c>
       <c r="D23">
-        <v>0.4383417884892822</v>
+        <v>0.4383417884891117</v>
       </c>
       <c r="E23">
-        <v>0.2007364985100111</v>
+        <v>0.200736498510004</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.664595365145743</v>
+        <v>4.6645953651458</v>
       </c>
       <c r="H23">
-        <v>3.011125057385058</v>
+        <v>3.011125057385087</v>
       </c>
       <c r="I23">
-        <v>0.02954654165140624</v>
+        <v>0.02954654165140091</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.761925053826815</v>
+        <v>1.761925053826801</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,13 +1251,13 @@
         <v>3.791961973233242</v>
       </c>
       <c r="C24">
-        <v>1.835247276671566</v>
+        <v>1.835247276671168</v>
       </c>
       <c r="D24">
-        <v>0.367234260018634</v>
+        <v>0.3672342600187761</v>
       </c>
       <c r="E24">
-        <v>0.1696943114093585</v>
+        <v>0.1696943114093301</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>3.961455343818812</v>
       </c>
       <c r="H24">
-        <v>2.582745920732847</v>
+        <v>2.582745920732833</v>
       </c>
       <c r="I24">
-        <v>0.02547532268660468</v>
+        <v>0.02547532268659225</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.469691198478657</v>
+        <v>1.469691198478642</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.030111451036646</v>
+        <v>3.030111451036703</v>
       </c>
       <c r="C25">
         <v>1.46025576950808</v>
       </c>
       <c r="D25">
-        <v>0.2954781292796724</v>
+        <v>0.2954781292800988</v>
       </c>
       <c r="E25">
-        <v>0.1386679895646132</v>
+        <v>0.1386679895646523</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.25956727810798</v>
+        <v>3.259567278107966</v>
       </c>
       <c r="H25">
         <v>2.156684816669042</v>
       </c>
       <c r="I25">
-        <v>0.0214602015713119</v>
+        <v>0.02146020157129058</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.494537986109549</v>
+        <v>2.494389561403636</v>
       </c>
       <c r="C2">
-        <v>1.198599523735766</v>
+        <v>1.197374176192568</v>
       </c>
       <c r="D2">
-        <v>0.2456302442305542</v>
+        <v>0.2456291922499219</v>
       </c>
       <c r="E2">
-        <v>0.1173229702419185</v>
+        <v>0.1173396586589242</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.777316481874422</v>
+        <v>0.8981839190718119</v>
       </c>
       <c r="H2">
-        <v>1.865102866913887</v>
+        <v>1.874182608566031</v>
       </c>
       <c r="I2">
-        <v>0.01873553315796705</v>
+        <v>1.85966251879708</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01873998741661786</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9665671137407585</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.9663455780791068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142750157035493</v>
+        <v>2.142684535668195</v>
       </c>
       <c r="C3">
-        <v>1.027639918493975</v>
+        <v>1.026603292739111</v>
       </c>
       <c r="D3">
-        <v>0.2132077325903623</v>
+        <v>0.2132098076071003</v>
       </c>
       <c r="E3">
-        <v>0.1035493336040538</v>
+        <v>0.1035656603548318</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.466446548655142</v>
+        <v>0.7914457549555749</v>
       </c>
       <c r="H3">
-        <v>1.677780305004532</v>
+        <v>1.671255548699293</v>
       </c>
       <c r="I3">
-        <v>0.01699712518899688</v>
+        <v>1.672997561260729</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.01700156506133865</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.8314114085952369</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.8312349568771253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.930984673816653</v>
+        <v>1.930959496845219</v>
       </c>
       <c r="C4">
-        <v>0.9250859040211026</v>
+        <v>0.9241587255069987</v>
       </c>
       <c r="D4">
-        <v>0.1938322460091371</v>
+        <v>0.1938357722349053</v>
       </c>
       <c r="E4">
-        <v>0.09536655791902504</v>
+        <v>0.0953826560020552</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.281896804430303</v>
+        <v>0.7279823319527878</v>
       </c>
       <c r="H4">
-        <v>1.566864396741622</v>
+        <v>1.550890296173677</v>
       </c>
       <c r="I4">
-        <v>0.01597305295558549</v>
+        <v>1.562476303909065</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01597752663419794</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.7503632820306265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.7502109916334234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.845586098376998</v>
+        <v>1.845575170360803</v>
       </c>
       <c r="C5">
-        <v>0.8838071791291782</v>
+        <v>0.8829232423734084</v>
       </c>
       <c r="D5">
-        <v>0.1860521812751585</v>
+        <v>0.1860562040217104</v>
       </c>
       <c r="E5">
-        <v>0.09209218287258381</v>
+        <v>0.09210819154407801</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.208078975599364</v>
+        <v>0.7025735231332959</v>
       </c>
       <c r="H5">
-        <v>1.522568558655266</v>
+        <v>1.502771246400485</v>
       </c>
       <c r="I5">
-        <v>0.0155653133681799</v>
+        <v>1.51833942228707</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01556981140354186</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7177512711605374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.7176080793322086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.831455395403736</v>
+        <v>1.831446708727526</v>
       </c>
       <c r="C6">
-        <v>0.8769812809670157</v>
+        <v>0.8761044492655117</v>
       </c>
       <c r="D6">
-        <v>0.1847667935538624</v>
+        <v>0.1847708936184063</v>
       </c>
       <c r="E6">
-        <v>0.09155186967918283</v>
+        <v>0.09156786386718707</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.195899855801599</v>
+        <v>0.6983799024876305</v>
       </c>
       <c r="H6">
-        <v>1.515264332200246</v>
+        <v>1.494833684668052</v>
       </c>
       <c r="I6">
-        <v>0.01549815118949915</v>
+        <v>1.511061489128366</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.01550265390263927</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.7123592335327658</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.7122175110219118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.929829532284344</v>
+        <v>1.929804556053142</v>
       </c>
       <c r="C7">
-        <v>0.924527245744855</v>
+        <v>0.923600655590576</v>
       </c>
       <c r="D7">
-        <v>0.1937268759262594</v>
+        <v>0.1937304092047754</v>
       </c>
       <c r="E7">
-        <v>0.09532216588047859</v>
+        <v>0.09533826273617052</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.28089590569131</v>
+        <v>0.7276379109325291</v>
       </c>
       <c r="H7">
-        <v>1.56626350972742</v>
+        <v>1.55023774376707</v>
       </c>
       <c r="I7">
-        <v>0.01596751689228704</v>
+        <v>1.561877567671971</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.01597199085677747</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.7499218707225879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.7497697058905928</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.372256377057795</v>
+        <v>2.372138909000739</v>
       </c>
       <c r="C8">
-        <v>1.139090877415697</v>
+        <v>1.137932102420621</v>
       </c>
       <c r="D8">
-        <v>0.2343289541605458</v>
+        <v>0.2343290928311745</v>
       </c>
       <c r="E8">
-        <v>0.1125112887055693</v>
+        <v>0.1125278574882493</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.668686535597232</v>
+        <v>0.8609064957572485</v>
       </c>
       <c r="H8">
-        <v>1.799581577236026</v>
+        <v>1.803249858280722</v>
       </c>
       <c r="I8">
-        <v>0.01812630278473826</v>
+        <v>1.794370138893598</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.01813074317636243</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9195175762717156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0.9193124060733524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282103363576084</v>
+        <v>3.281701242111637</v>
       </c>
       <c r="C9">
-        <v>1.583930586849874</v>
+        <v>1.582251546403029</v>
       </c>
       <c r="D9">
-        <v>0.3191103076138972</v>
+        <v>0.3190987712855531</v>
       </c>
       <c r="E9">
-        <v>0.1488499093721245</v>
+        <v>0.1488670189688257</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.489796574227796</v>
+        <v>1.14223667773345</v>
       </c>
       <c r="H9">
-        <v>2.296241939940913</v>
+        <v>2.339877820651083</v>
       </c>
       <c r="I9">
-        <v>0.0227712684796213</v>
+        <v>2.289316603845691</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02277598137453829</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.271178564462133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.270833950203269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.990491008040863</v>
+        <v>3.989780534542604</v>
       </c>
       <c r="C10">
-        <v>1.933494575288364</v>
+        <v>1.931369539338391</v>
       </c>
       <c r="D10">
-        <v>0.3860761638464112</v>
+        <v>0.3860506302073361</v>
       </c>
       <c r="E10">
-        <v>0.1778928865167657</v>
+        <v>0.1779095032730567</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.147082239149739</v>
+        <v>1.366869589041386</v>
       </c>
       <c r="H10">
-        <v>2.695700556638513</v>
+        <v>2.770025609329707</v>
       </c>
       <c r="I10">
-        <v>0.02654568882856978</v>
+        <v>2.687419400176523</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0265507921373267</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.547242109491123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1.546760061269765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.325326767771799</v>
+        <v>4.324443512011158</v>
       </c>
       <c r="C11">
-        <v>2.099689314606223</v>
+        <v>2.097340305883392</v>
       </c>
       <c r="D11">
-        <v>0.4179763375424272</v>
+        <v>0.4179425100083449</v>
       </c>
       <c r="E11">
-        <v>0.1918182040848038</v>
+        <v>0.1918341760787001</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.462504081029351</v>
+        <v>1.474534702924842</v>
       </c>
       <c r="H11">
-        <v>2.887864628282415</v>
+        <v>2.976580583657949</v>
       </c>
       <c r="I11">
-        <v>0.02837185863408109</v>
+        <v>2.878934426626799</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02837716981034077</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.678344754620753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1.677788502512612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.454330307033047</v>
+        <v>4.453375725159503</v>
       </c>
       <c r="C12">
-        <v>2.163884720494821</v>
+        <v>2.161447066366861</v>
       </c>
       <c r="D12">
-        <v>0.4303057055822705</v>
+        <v>0.4302683735843402</v>
       </c>
       <c r="E12">
-        <v>0.1972148327269991</v>
+        <v>0.197230472129867</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.584785839689545</v>
+        <v>1.516253982856171</v>
       </c>
       <c r="H12">
-        <v>2.962434721769824</v>
+        <v>3.056676775865753</v>
       </c>
       <c r="I12">
-        <v>0.0290822156832391</v>
+        <v>2.953252883837891</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02908760813396505</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.728955115445189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1.728368623716278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.426441694999255</v>
+        <v>4.425502759730136</v>
       </c>
       <c r="C13">
-        <v>2.149998874536266</v>
+        <v>2.147580497173635</v>
       </c>
       <c r="D13">
-        <v>0.4276384916873042</v>
+        <v>0.4276019322759055</v>
       </c>
       <c r="E13">
-        <v>0.1960467093567928</v>
+        <v>0.1960624248728351</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.558315463955637</v>
+        <v>1.507223896822182</v>
       </c>
       <c r="H13">
-        <v>2.946289211997055</v>
+        <v>3.039337449510668</v>
       </c>
       <c r="I13">
-        <v>0.02892833400139594</v>
+        <v>2.937161851447755</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02893370887350954</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.718009292283199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1.717429417075962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.335893150709467</v>
+        <v>4.335004153251418</v>
       </c>
       <c r="C14">
-        <v>2.104943964110475</v>
+        <v>2.102587744589016</v>
       </c>
       <c r="D14">
-        <v>0.4189854084195019</v>
+        <v>0.4189513004493222</v>
       </c>
       <c r="E14">
-        <v>0.1922595813122356</v>
+        <v>0.1922755279107591</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.47250433442349</v>
+        <v>1.477946926165686</v>
       </c>
       <c r="H14">
-        <v>2.893961530403232</v>
+        <v>2.983130491600946</v>
       </c>
       <c r="I14">
-        <v>0.02842990277695989</v>
+        <v>2.885010751866929</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02843522060224402</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.682488071394275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>1.681929377432226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.280730280725209</v>
+        <v>4.279871061890503</v>
       </c>
       <c r="C15">
-        <v>2.077518313374412</v>
+        <v>2.075199641095935</v>
       </c>
       <c r="D15">
-        <v>0.4137190398993198</v>
+        <v>0.4136863831291464</v>
       </c>
       <c r="E15">
-        <v>0.1899566124609251</v>
+        <v>0.1899726880943575</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.420327868971469</v>
+        <v>1.460142797045478</v>
       </c>
       <c r="H15">
-        <v>2.862153787464052</v>
+        <v>2.948957039646871</v>
       </c>
       <c r="I15">
-        <v>0.02812715395834964</v>
+        <v>2.853310366750264</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02813243710445335</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.660861546289539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1.660315531953003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.968894388600802</v>
+        <v>3.968194455137109</v>
       </c>
       <c r="C16">
-        <v>1.92279637604787</v>
+        <v>1.920685489045638</v>
       </c>
       <c r="D16">
-        <v>0.3840238138629388</v>
+        <v>0.3839987766249635</v>
       </c>
       <c r="E16">
-        <v>0.1769988848044193</v>
+        <v>0.1770155330527672</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.126837907069898</v>
+        <v>1.359956763676252</v>
       </c>
       <c r="H16">
-        <v>2.683376783322174</v>
+        <v>2.756771206065252</v>
       </c>
       <c r="I16">
-        <v>0.02642879537726728</v>
+        <v>2.675137296415826</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02643388557779147</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.538799211650428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1.538321741101512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.781078092678626</v>
+        <v>3.780466772716636</v>
       </c>
       <c r="C17">
-        <v>1.829867397617534</v>
+        <v>1.827878070246527</v>
       </c>
       <c r="D17">
-        <v>0.3662029102360833</v>
+        <v>0.3661819996207782</v>
       </c>
       <c r="E17">
-        <v>0.1692461321308727</v>
+        <v>0.1692630068225967</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.951309713354277</v>
+        <v>1.300004671401524</v>
       </c>
       <c r="H17">
-        <v>2.57657530849599</v>
+        <v>2.64186362636039</v>
       </c>
       <c r="I17">
-        <v>0.02541691700443316</v>
+        <v>2.568697268565813</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02542189558945473</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.465443664816334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.465004960052255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.674208110562688</v>
+        <v>3.673644787419278</v>
       </c>
       <c r="C18">
-        <v>1.777076594830589</v>
+        <v>1.775155258397604</v>
       </c>
       <c r="D18">
-        <v>0.3560850874249155</v>
+        <v>0.3560663754229836</v>
       </c>
       <c r="E18">
-        <v>0.1648526671310506</v>
+        <v>0.1648696346077259</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.851862836658</v>
+        <v>1.266026285106733</v>
       </c>
       <c r="H18">
-        <v>2.516108591131612</v>
+        <v>2.576773955571639</v>
       </c>
       <c r="I18">
-        <v>0.02484496892642696</v>
+        <v>2.508435495055451</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02484988631275264</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.423759165497884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.423341691584199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63821150652899</v>
+        <v>3.637663956313872</v>
       </c>
       <c r="C19">
-        <v>1.759309506382465</v>
+        <v>1.757410880796158</v>
       </c>
       <c r="D19">
-        <v>0.3526809064825756</v>
+        <v>0.35266291110905</v>
       </c>
       <c r="E19">
-        <v>0.1633758281744164</v>
+        <v>0.1633928213399969</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.818438412711799</v>
+        <v>1.254603990353559</v>
       </c>
       <c r="H19">
-        <v>2.495792683054432</v>
+        <v>2.554899170666829</v>
       </c>
       <c r="I19">
-        <v>0.02465295840907089</v>
+        <v>2.48818850325415</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02465785563003386</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.409727998191826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.409317541677481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800949060080995</v>
+        <v>3.800328622455538</v>
       </c>
       <c r="C20">
-        <v>1.839690068236507</v>
+        <v>1.837688005231485</v>
       </c>
       <c r="D20">
-        <v>0.3680859988960634</v>
+        <v>0.3680646676467489</v>
       </c>
       <c r="E20">
-        <v>0.17006448614368</v>
+        <v>0.1700813407804276</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.969835290746033</v>
+        <v>1.306333389538906</v>
       </c>
       <c r="H20">
-        <v>2.587842879802693</v>
+        <v>2.653989924656031</v>
       </c>
       <c r="I20">
-        <v>0.02552357143358996</v>
+        <v>2.579926676552219</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02552856159994299</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.473198808184435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.472756090035958</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.36242596033469</v>
+        <v>4.361522466330769</v>
       </c>
       <c r="C21">
-        <v>2.118141410561464</v>
+        <v>2.115767045169832</v>
       </c>
       <c r="D21">
-        <v>0.4215198769969675</v>
+        <v>0.4214850596706015</v>
       </c>
       <c r="E21">
-        <v>0.1933684177456882</v>
+        <v>0.1933842991408028</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.497627858660024</v>
+        <v>1.48651909625579</v>
       </c>
       <c r="H21">
-        <v>2.909279875428368</v>
+        <v>2.999586063723882</v>
       </c>
       <c r="I21">
-        <v>0.02857576526329275</v>
+        <v>2.900277400571667</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02858109979423951</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.69289381071826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>1.692328957689298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.74249999971488</v>
+        <v>4.741376316303672</v>
       </c>
       <c r="C22">
-        <v>2.307616676814064</v>
+        <v>2.304976121929485</v>
       </c>
       <c r="D22">
-        <v>0.4579221588708151</v>
+        <v>0.4578763467853264</v>
       </c>
       <c r="E22">
-        <v>0.2093309302491022</v>
+        <v>0.2093456393956572</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.8594059612617</v>
+        <v>1.609909603944374</v>
       </c>
       <c r="H22">
-        <v>3.130041672092915</v>
+        <v>3.23659274179667</v>
       </c>
       <c r="I22">
-        <v>0.03068219745524736</v>
+        <v>3.120294324194987</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.0306877703447288</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.842204326439131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>1.841546863414109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.538294677004444</v>
+        <v>4.537292226980128</v>
       </c>
       <c r="C23">
-        <v>2.205716788046004</v>
+        <v>2.203220717551972</v>
       </c>
       <c r="D23">
-        <v>0.4383417884891117</v>
+        <v>0.4383020798927078</v>
       </c>
       <c r="E23">
-        <v>0.200736498510004</v>
+        <v>0.2007518943261744</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.6645953651458</v>
+        <v>1.543477205069109</v>
       </c>
       <c r="H23">
-        <v>3.011125057385087</v>
+        <v>3.108958570180789</v>
       </c>
       <c r="I23">
-        <v>0.02954654165140091</v>
+        <v>3.00177894101229</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02955198697639538</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.761925053826801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1.761318375635867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791961973233242</v>
+        <v>3.791345666798691</v>
       </c>
       <c r="C24">
-        <v>1.835247276671168</v>
+        <v>1.833250977291868</v>
       </c>
       <c r="D24">
-        <v>0.3672342600187761</v>
+        <v>0.3672131194730213</v>
       </c>
       <c r="E24">
-        <v>0.1696943114093301</v>
+        <v>0.1697111752275475</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.961455343818812</v>
+        <v>1.30347066507494</v>
       </c>
       <c r="H24">
-        <v>2.582745920732833</v>
+        <v>2.648504619835734</v>
       </c>
       <c r="I24">
-        <v>0.02547532268659225</v>
+        <v>2.574846979926747</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02548030760762643</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.469691198478642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.469250298037664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.030111451036703</v>
+        <v>3.029800671222063</v>
       </c>
       <c r="C25">
-        <v>1.46025576950808</v>
+        <v>1.45872662261371</v>
       </c>
       <c r="D25">
-        <v>0.2954781292800988</v>
+        <v>0.2954704973437856</v>
       </c>
       <c r="E25">
-        <v>0.1386679895646523</v>
+        <v>0.1386850495352761</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.259567278107966</v>
+        <v>1.063447729820069</v>
       </c>
       <c r="H25">
-        <v>2.156684816669042</v>
+        <v>2.189317300399381</v>
       </c>
       <c r="I25">
-        <v>0.02146020157129058</v>
+        <v>2.150236867063242</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02146480517297356</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.173432132965644</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.173130242517416</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.494389561403636</v>
+        <v>2.41835597762423</v>
       </c>
       <c r="C2">
-        <v>1.197374176192568</v>
+        <v>0.176414208165582</v>
       </c>
       <c r="D2">
-        <v>0.2456291922499219</v>
+        <v>0.2704644429085619</v>
       </c>
       <c r="E2">
-        <v>0.1173396586589242</v>
+        <v>0.06130308524814154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.8981839190718119</v>
+        <v>0.0008686526048639903</v>
       </c>
       <c r="H2">
-        <v>1.874182608566031</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.85966251879708</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01873998741661786</v>
+        <v>0.01831234005482685</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5028932815161085</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3465983353536473</v>
       </c>
       <c r="M2">
-        <v>0.9663455780791068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.573729597891116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.142684535668195</v>
+        <v>2.167318065619099</v>
       </c>
       <c r="C3">
-        <v>1.026603292739111</v>
+        <v>0.1481202013770258</v>
       </c>
       <c r="D3">
-        <v>0.2132098076071003</v>
+        <v>0.2523522094668493</v>
       </c>
       <c r="E3">
-        <v>0.1035656603548318</v>
+        <v>0.05886386101763463</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7914457549555749</v>
+        <v>0.0008814075129803811</v>
       </c>
       <c r="H3">
-        <v>1.671255548699293</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.672997561260729</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01700156506133865</v>
+        <v>0.01756245899948983</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4447875640325663</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3199135535390667</v>
       </c>
       <c r="M3">
-        <v>0.8312349568771253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>8.597065155101916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.930959496845219</v>
+        <v>2.021072350650684</v>
       </c>
       <c r="C4">
-        <v>0.9241587255069987</v>
+        <v>0.1315747625554025</v>
       </c>
       <c r="D4">
-        <v>0.1938357722349053</v>
+        <v>0.2416975730107822</v>
       </c>
       <c r="E4">
-        <v>0.0953826560020552</v>
+        <v>0.05743219640094743</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7279823319527878</v>
+        <v>0.000889383137977739</v>
       </c>
       <c r="H4">
-        <v>1.550890296173677</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.562476303909065</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01597752663419794</v>
+        <v>0.01711029778104312</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4109292231740653</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3044126414101385</v>
       </c>
       <c r="M4">
-        <v>0.7502109916334234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>8.011434491133059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.845575170360803</v>
+        <v>1.963246867148143</v>
       </c>
       <c r="C5">
-        <v>0.8829232423734084</v>
+        <v>0.1250102810079028</v>
       </c>
       <c r="D5">
-        <v>0.1860562040217104</v>
+        <v>0.237461249027902</v>
       </c>
       <c r="E5">
-        <v>0.09210819154407801</v>
+        <v>0.05686380694305448</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7025735231332959</v>
+        <v>0.0008926736980501282</v>
       </c>
       <c r="H5">
-        <v>1.502771246400485</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.51833942228707</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01556981140354186</v>
+        <v>0.01692742718428342</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3975371235489149</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2982964299954176</v>
       </c>
       <c r="M5">
-        <v>0.7176080793322086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>7.775759816979672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.831446708727526</v>
+        <v>1.95374616169218</v>
       </c>
       <c r="C6">
-        <v>0.8761044492655117</v>
+        <v>0.1239301897728211</v>
       </c>
       <c r="D6">
-        <v>0.1847708936184063</v>
+        <v>0.23676386544075</v>
       </c>
       <c r="E6">
-        <v>0.09156786386718707</v>
+        <v>0.056770290956214</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6983799024876305</v>
+        <v>0.0008932226492741947</v>
       </c>
       <c r="H6">
-        <v>1.494833684668052</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.511061489128366</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01550265390263927</v>
+        <v>0.01689712699514079</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3953364615100554</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2972923630092765</v>
       </c>
       <c r="M6">
-        <v>0.7122175110219118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>7.736790746845543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.929804556053142</v>
+        <v>2.020285590412698</v>
       </c>
       <c r="C7">
-        <v>0.923600655590576</v>
+        <v>0.131485548350966</v>
       </c>
       <c r="D7">
-        <v>0.1937304092047754</v>
+        <v>0.2416400277632818</v>
       </c>
       <c r="E7">
-        <v>0.09533826273617052</v>
+        <v>0.05742447202332812</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.7276379109325291</v>
+        <v>0.0008894273468234777</v>
       </c>
       <c r="H7">
-        <v>1.55023774376707</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.561877567671971</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01597199085677747</v>
+        <v>0.017107826750558</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4107470351402114</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3043293709100254</v>
       </c>
       <c r="M7">
-        <v>0.7497697058905928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>8.008244747743646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.372138909000739</v>
+        <v>2.330023001693746</v>
       </c>
       <c r="C8">
-        <v>1.137932102420621</v>
+        <v>0.1664674086248965</v>
       </c>
       <c r="D8">
-        <v>0.2343290928311745</v>
+        <v>0.2641150553828311</v>
       </c>
       <c r="E8">
-        <v>0.1125278574882493</v>
+        <v>0.06044732857366064</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.8609064957572485</v>
+        <v>0.0008730232792772094</v>
       </c>
       <c r="H8">
-        <v>1.803249858280722</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.794370138893598</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01813074317636243</v>
+        <v>0.01805162015239858</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4824476577608223</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3372001531556208</v>
       </c>
       <c r="M8">
-        <v>0.9193124060733524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.23370461685289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.281701242111637</v>
+        <v>3.011269716191293</v>
       </c>
       <c r="C9">
-        <v>1.582251546403029</v>
+        <v>0.2432233040469782</v>
       </c>
       <c r="D9">
-        <v>0.3190987712855531</v>
+        <v>0.3125006186189125</v>
       </c>
       <c r="E9">
-        <v>0.1488670189688257</v>
+        <v>0.06698127756326855</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.14223667773345</v>
+        <v>0.0008417794910726571</v>
       </c>
       <c r="H9">
-        <v>2.339877820651083</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.289316603845691</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02277598137453829</v>
+        <v>0.02000474603145275</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.6402142042881991</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4098059377648013</v>
       </c>
       <c r="M9">
-        <v>1.270833950203269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.77732736570471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.989780534542604</v>
+        <v>3.575519771357676</v>
       </c>
       <c r="C10">
-        <v>1.931369539338391</v>
+        <v>0.3072724134556211</v>
       </c>
       <c r="D10">
-        <v>0.3860506302073361</v>
+        <v>0.3516880939642562</v>
       </c>
       <c r="E10">
-        <v>0.1779095032730567</v>
+        <v>0.07228697319364485</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.366869589041386</v>
+        <v>0.0008190280744111095</v>
       </c>
       <c r="H10">
-        <v>2.770025609329707</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.687419400176523</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0265507921373267</v>
+        <v>0.02156440060105425</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.7711490091468676</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.4700010776300019</v>
       </c>
       <c r="M10">
-        <v>1.546760061269765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>13.77980037852475</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.324443512011158</v>
+        <v>3.851358939968748</v>
       </c>
       <c r="C11">
-        <v>2.097340305883392</v>
+        <v>0.3388454386759463</v>
       </c>
       <c r="D11">
-        <v>0.4179425100083449</v>
+        <v>0.3705878610262516</v>
       </c>
       <c r="E11">
-        <v>0.1918341760787001</v>
+        <v>0.07484828756516393</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.474534702924842</v>
+        <v>0.0008086213178193508</v>
       </c>
       <c r="H11">
-        <v>2.976580583657949</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.878934426626799</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02837716981034077</v>
+        <v>0.0223191064627466</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8352746057573341</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.4994052934950872</v>
       </c>
       <c r="M11">
-        <v>1.677788502512612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>14.7332598189106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.453375725159503</v>
+        <v>3.959126772279774</v>
       </c>
       <c r="C12">
-        <v>2.161447066366861</v>
+        <v>0.3512343523538561</v>
       </c>
       <c r="D12">
-        <v>0.4302683735843402</v>
+        <v>0.3779284179172322</v>
       </c>
       <c r="E12">
-        <v>0.197230472129867</v>
+        <v>0.07584337916094697</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.516253982856171</v>
+        <v>0.0008046618532287411</v>
       </c>
       <c r="H12">
-        <v>3.056676775865753</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.953252883837891</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02908760813396505</v>
+        <v>0.02261334621306688</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.860350669784637</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5108864160088018</v>
       </c>
       <c r="M12">
-        <v>1.728368623716278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>15.1018294740681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.425502759730136</v>
+        <v>3.935759472486211</v>
       </c>
       <c r="C13">
-        <v>2.147580497173635</v>
+        <v>0.348545408452793</v>
       </c>
       <c r="D13">
-        <v>0.4276019322759055</v>
+        <v>0.3763387991426015</v>
       </c>
       <c r="E13">
-        <v>0.1960624248728351</v>
+        <v>0.07562787721844799</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.507223896822182</v>
+        <v>0.0008055156141165919</v>
       </c>
       <c r="H13">
-        <v>3.039337449510668</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.937161851447755</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02893370887350954</v>
+        <v>0.02254956468566061</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8549123125482652</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5083973295033104</v>
       </c>
       <c r="M13">
-        <v>1.717429417075962</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>15.0220917121739</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.335004153251418</v>
+        <v>3.860155026753887</v>
       </c>
       <c r="C14">
-        <v>2.102587744589016</v>
+        <v>0.339855466776612</v>
       </c>
       <c r="D14">
-        <v>0.4189513004493222</v>
+        <v>0.3711879036077335</v>
       </c>
       <c r="E14">
-        <v>0.1922755279107591</v>
+        <v>0.07492962433704164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.477946926165686</v>
+        <v>0.0008082960117314066</v>
       </c>
       <c r="H14">
-        <v>2.983130491600946</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.885010751866929</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02843522060224402</v>
+        <v>0.02234313162670176</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8373208424326748</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.500342548723566</v>
       </c>
       <c r="M14">
-        <v>1.681929377432226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>14.76342258898916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.279871061890503</v>
+        <v>3.814295255109698</v>
       </c>
       <c r="C15">
-        <v>2.075199641095935</v>
+        <v>0.3345917674174075</v>
       </c>
       <c r="D15">
-        <v>0.4136863831291464</v>
+        <v>0.3680577162747198</v>
       </c>
       <c r="E15">
-        <v>0.1899726880943575</v>
+        <v>0.07450533356305655</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.460142797045478</v>
+        <v>0.0008099963094819253</v>
       </c>
       <c r="H15">
-        <v>2.948957039646871</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.853310366750264</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02813243710445335</v>
+        <v>0.02221785125252662</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.826653414598681</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.4954557270971662</v>
       </c>
       <c r="M15">
-        <v>1.660315531953003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>14.60600547544908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.968194455137109</v>
+        <v>3.55792367877973</v>
       </c>
       <c r="C16">
-        <v>1.920685489045638</v>
+        <v>0.3052647203627146</v>
       </c>
       <c r="D16">
-        <v>0.3839987766249635</v>
+        <v>0.3504769188187993</v>
       </c>
       <c r="E16">
-        <v>0.1770155330527672</v>
+        <v>0.07212287666838435</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.359956763676252</v>
+        <v>0.0008197061869066354</v>
       </c>
       <c r="H16">
-        <v>2.756771206065252</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.675137296415826</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02643388557779147</v>
+        <v>0.02151614515465639</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7670611229100928</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.4681246213413459</v>
       </c>
       <c r="M16">
-        <v>1.538321741101512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>13.71845862657457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.780466772716636</v>
+        <v>3.405917197206406</v>
       </c>
       <c r="C17">
-        <v>1.827878070246527</v>
+        <v>0.2879508646550164</v>
       </c>
       <c r="D17">
-        <v>0.3661819996207782</v>
+        <v>0.3399856234472196</v>
       </c>
       <c r="E17">
-        <v>0.1692630068225967</v>
+        <v>0.07070171574134321</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.300004671401524</v>
+        <v>0.000825641477823028</v>
       </c>
       <c r="H17">
-        <v>2.64186362636039</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.568697268565813</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02542189558945473</v>
+        <v>0.02109850371084754</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.731760518607345</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4519117365518355</v>
       </c>
       <c r="M17">
-        <v>1.465004960052255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.18577998286457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.673644787419278</v>
+        <v>3.320250979623779</v>
       </c>
       <c r="C18">
-        <v>1.775155258397604</v>
+        <v>0.2782158860484856</v>
       </c>
       <c r="D18">
-        <v>0.3560663754229836</v>
+        <v>0.3340502654473312</v>
       </c>
       <c r="E18">
-        <v>0.1648696346077259</v>
+        <v>0.06989793029259417</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.266026285106733</v>
+        <v>0.0008290506671778254</v>
       </c>
       <c r="H18">
-        <v>2.576773955571639</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.508435495055451</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02484988631275264</v>
+        <v>0.02086240378578097</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7118763180911927</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.4427728253113941</v>
       </c>
       <c r="M18">
-        <v>1.423341691584199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>12.88330152179685</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.637663956313872</v>
+        <v>3.291533640763816</v>
       </c>
       <c r="C19">
-        <v>1.757410880796158</v>
+        <v>0.2749559462723994</v>
       </c>
       <c r="D19">
-        <v>0.35266291110905</v>
+        <v>0.3320568503162349</v>
       </c>
       <c r="E19">
-        <v>0.1633928213399969</v>
+        <v>0.06962801553992293</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.254603990353559</v>
+        <v>0.000830204449565871</v>
       </c>
       <c r="H19">
-        <v>2.554899170666829</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.48818850325415</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02465785563003386</v>
+        <v>0.02078311898497365</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7052122477243543</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.4397090280452147</v>
       </c>
       <c r="M19">
-        <v>1.409317541677481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>12.78151983783701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.800328622455538</v>
+        <v>3.421912312482505</v>
       </c>
       <c r="C20">
-        <v>1.837688005231485</v>
+        <v>0.2897702829126558</v>
       </c>
       <c r="D20">
-        <v>0.3680646676467489</v>
+        <v>0.3410920041030323</v>
       </c>
       <c r="E20">
-        <v>0.1700813407804276</v>
+        <v>0.07085156418771632</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.306333389538906</v>
+        <v>0.0008250102044477036</v>
       </c>
       <c r="H20">
-        <v>2.653989924656031</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.579926676552219</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02552856159994299</v>
+        <v>0.02114252360340085</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.735473982058096</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.4536179755609169</v>
       </c>
       <c r="M20">
-        <v>1.472756090035958</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.2420712072217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.361522466330769</v>
+        <v>3.882266905544839</v>
       </c>
       <c r="C21">
-        <v>2.115767045169832</v>
+        <v>0.3423954139097134</v>
       </c>
       <c r="D21">
-        <v>0.4214850596706015</v>
+        <v>0.3726955994607835</v>
       </c>
       <c r="E21">
-        <v>0.1933842991408028</v>
+        <v>0.07513399944974353</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.48651909625579</v>
+        <v>0.0008074799416941627</v>
       </c>
       <c r="H21">
-        <v>2.999586063723882</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.900277400571667</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02858109979423951</v>
+        <v>0.0224035189206413</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8424651186733598</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5026985291117683</v>
       </c>
       <c r="M21">
-        <v>1.692328957689298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>14.83918340943228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.741376316303672</v>
+        <v>4.20280212284996</v>
       </c>
       <c r="C22">
-        <v>2.304976121929485</v>
+        <v>0.3793651371942417</v>
       </c>
       <c r="D22">
-        <v>0.4578763467853264</v>
+        <v>0.3944389578804675</v>
       </c>
       <c r="E22">
-        <v>0.2093456393956572</v>
+        <v>0.07808202493510308</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.609909603944374</v>
+        <v>0.0007959076384957993</v>
       </c>
       <c r="H22">
-        <v>3.23659274179667</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.120294324194987</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0306877703447288</v>
+        <v>0.02327816056865295</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.9170996441573749</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.5368295811727677</v>
       </c>
       <c r="M22">
-        <v>1.841546863414109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>15.92766944585026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.537292226980128</v>
+        <v>4.029709138694614</v>
       </c>
       <c r="C23">
-        <v>2.203220717551972</v>
+        <v>0.3593655480397331</v>
       </c>
       <c r="D23">
-        <v>0.4383020798927078</v>
+        <v>0.3827231748814626</v>
       </c>
       <c r="E23">
-        <v>0.2007518943261744</v>
+        <v>0.07649343361396177</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.543477205069109</v>
+        <v>0.0008020985951124889</v>
       </c>
       <c r="H23">
-        <v>3.108958570180789</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.00177894101229</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02955198697639538</v>
+        <v>0.02280595656548989</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8767813490348573</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5184035675981136</v>
       </c>
       <c r="M23">
-        <v>1.761318375635867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>15.34209280394373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.791345666798691</v>
+        <v>3.414675590490617</v>
       </c>
       <c r="C24">
-        <v>1.833250977291868</v>
+        <v>0.2889470477945082</v>
       </c>
       <c r="D24">
-        <v>0.3672131194730213</v>
+        <v>0.3405915118131162</v>
       </c>
       <c r="E24">
-        <v>0.1697111752275475</v>
+        <v>0.07078377669297353</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.30347066507494</v>
+        <v>0.0008252956116155656</v>
       </c>
       <c r="H24">
-        <v>2.648504619835734</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.574846979926747</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02548030760762643</v>
+        <v>0.02112260986739578</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.7337938562826025</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.4528460217781145</v>
       </c>
       <c r="M24">
-        <v>1.469250298037664</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.21661031754286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.029800671222063</v>
+        <v>2.81732934085062</v>
       </c>
       <c r="C25">
-        <v>1.45872662261371</v>
+        <v>0.2213378390316905</v>
       </c>
       <c r="D25">
-        <v>0.2954704973437856</v>
+        <v>0.2988550277573125</v>
       </c>
       <c r="E25">
-        <v>0.1386850495352761</v>
+        <v>0.06513609748281546</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.063447729820069</v>
+        <v>0.0008501664623055629</v>
       </c>
       <c r="H25">
-        <v>2.189317300399381</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2.150236867063242</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02146480517297356</v>
+        <v>0.01945968804780041</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5952737100603542</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3891165272412991</v>
       </c>
       <c r="M25">
-        <v>1.173130242517416</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>11.06968486078335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.41835597762423</v>
+        <v>1.072842793085272</v>
       </c>
       <c r="C2">
-        <v>0.176414208165582</v>
+        <v>0.1681524312130591</v>
       </c>
       <c r="D2">
-        <v>0.2704644429085619</v>
+        <v>0.1981502311353012</v>
       </c>
       <c r="E2">
-        <v>0.06130308524814154</v>
+        <v>1.372361408571493</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008686526048639903</v>
+        <v>2.970277997070013</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.646608096080456</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01831234005482685</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5028932815161085</v>
+        <v>1.144603192768187</v>
       </c>
       <c r="L2">
-        <v>0.3465983353536473</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.573729597891116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.167318065619099</v>
+        <v>0.9226226931982353</v>
       </c>
       <c r="C3">
-        <v>0.1481202013770258</v>
+        <v>0.1456314968049526</v>
       </c>
       <c r="D3">
-        <v>0.2523522094668493</v>
+        <v>0.1710234408827631</v>
       </c>
       <c r="E3">
-        <v>0.05886386101763463</v>
+        <v>1.173059579429207</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008814075129803811</v>
+        <v>2.660484541998471</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.506007839452906</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01756245899948983</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4447875640325663</v>
+        <v>0.9831676141018875</v>
       </c>
       <c r="L3">
-        <v>0.3199135535390667</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.597065155101916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.021072350650684</v>
+        <v>0.8320578824188942</v>
       </c>
       <c r="C4">
-        <v>0.1315747625554025</v>
+        <v>0.1320512915754648</v>
       </c>
       <c r="D4">
-        <v>0.2416975730107822</v>
+        <v>0.154658493368828</v>
       </c>
       <c r="E4">
-        <v>0.05743219640094743</v>
+        <v>1.053809724237212</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.000889383137977739</v>
+        <v>2.474916330039861</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.422058854164874</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01711029778104312</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4109292231740653</v>
+        <v>0.8858286653101004</v>
       </c>
       <c r="L4">
-        <v>0.3044126414101385</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.011434491133059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.963246867148143</v>
+        <v>0.7955110826721636</v>
       </c>
       <c r="C5">
-        <v>0.1250102810079028</v>
+        <v>0.1265678850555361</v>
       </c>
       <c r="D5">
-        <v>0.237461249027902</v>
+        <v>0.148052607820901</v>
       </c>
       <c r="E5">
-        <v>0.05686380694305448</v>
+        <v>1.005873316415332</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008926736980501282</v>
+        <v>2.400318809670836</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.388379418445737</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01692742718428342</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3975371235489149</v>
+        <v>0.8465416145328106</v>
       </c>
       <c r="L5">
-        <v>0.2982964299954176</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>7.775759816979672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95374616169218</v>
+        <v>0.7894625253577772</v>
       </c>
       <c r="C6">
-        <v>0.1239301897728211</v>
+        <v>0.1256601094660112</v>
       </c>
       <c r="D6">
-        <v>0.23676386544075</v>
+        <v>0.1469592267629025</v>
       </c>
       <c r="E6">
-        <v>0.056770290956214</v>
+        <v>0.9979498736227157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008932226492741947</v>
+        <v>2.387989738340451</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.382817139314255</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01689712699514079</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3953364615100554</v>
+        <v>0.8400390485167293</v>
       </c>
       <c r="L6">
-        <v>0.2972923630092765</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>7.736790746845543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.020285590412698</v>
+        <v>0.8315636221011289</v>
       </c>
       <c r="C7">
-        <v>0.131485548350966</v>
+        <v>0.1319771499581748</v>
       </c>
       <c r="D7">
-        <v>0.2416400277632818</v>
+        <v>0.1545691619965766</v>
       </c>
       <c r="E7">
-        <v>0.05742447202332812</v>
+        <v>1.053160726247626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008894273468234777</v>
+        <v>2.473906322015807</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.421602579163704</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.017107826750558</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4107470351402114</v>
+        <v>0.8852973768341599</v>
       </c>
       <c r="L7">
-        <v>0.3043293709100254</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.008244747743646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.330023001693746</v>
+        <v>1.020661438619243</v>
       </c>
       <c r="C8">
-        <v>0.1664674086248965</v>
+        <v>0.1603283843183476</v>
       </c>
       <c r="D8">
-        <v>0.2641150553828311</v>
+        <v>0.188730068291477</v>
       </c>
       <c r="E8">
-        <v>0.06044732857366064</v>
+        <v>1.302913584908694</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008730232792772094</v>
+        <v>2.862405055694865</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.597592122646404</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01805162015239858</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4824476577608223</v>
+        <v>1.08852637842287</v>
       </c>
       <c r="L8">
-        <v>0.3372001531556208</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.23370461685289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.011269716191293</v>
+        <v>1.407848986095729</v>
       </c>
       <c r="C9">
-        <v>0.2432233040469782</v>
+        <v>0.2184901498671366</v>
       </c>
       <c r="D9">
-        <v>0.3125006186189125</v>
+        <v>0.2585446812713315</v>
       </c>
       <c r="E9">
-        <v>0.06698127756326855</v>
+        <v>1.824002620695708</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008417794910726571</v>
+        <v>3.668483974737825</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.965042689663164</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02000474603145275</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6402142042881991</v>
+        <v>1.504727995359019</v>
       </c>
       <c r="L9">
-        <v>0.4098059377648013</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.77732736570471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.575519771357676</v>
+        <v>1.707265003842224</v>
       </c>
       <c r="C10">
-        <v>0.3072724134556211</v>
+        <v>0.2637559637080216</v>
       </c>
       <c r="D10">
-        <v>0.3516880939642562</v>
+        <v>0.312377551412979</v>
       </c>
       <c r="E10">
-        <v>0.07228697319364485</v>
+        <v>2.236686175489467</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008190280744111095</v>
+        <v>4.299416844297042</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.254121086098962</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02156440060105425</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7711490091468676</v>
+        <v>1.826930654145428</v>
       </c>
       <c r="L10">
-        <v>0.4700010776300019</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.77980037852475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.851358939968748</v>
+        <v>1.848047106988815</v>
       </c>
       <c r="C11">
-        <v>0.3388454386759463</v>
+        <v>0.2851623559494243</v>
       </c>
       <c r="D11">
-        <v>0.3705878610262516</v>
+        <v>0.3376339832588968</v>
       </c>
       <c r="E11">
-        <v>0.07484828756516393</v>
+        <v>2.433878939865139</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008086213178193508</v>
+        <v>4.597965861741329</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.391238849310923</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0223191064627466</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8352746057573341</v>
+        <v>1.978584762928079</v>
       </c>
       <c r="L11">
-        <v>0.4994052934950872</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.7332598189106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.959126772279774</v>
+        <v>1.90214709530747</v>
       </c>
       <c r="C12">
-        <v>0.3512343523538561</v>
+        <v>0.2934121925110418</v>
       </c>
       <c r="D12">
-        <v>0.3779284179172322</v>
+        <v>0.3473293863931417</v>
       </c>
       <c r="E12">
-        <v>0.07584337916094697</v>
+        <v>2.510217279327193</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008046618532287411</v>
+        <v>4.712986136836548</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.444113644325398</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02261334621306688</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.860350669784637</v>
+        <v>2.036893648727329</v>
       </c>
       <c r="L12">
-        <v>0.5108864160088018</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.1018294740681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.935759472486211</v>
+        <v>1.890458297820089</v>
       </c>
       <c r="C13">
-        <v>0.348545408452793</v>
+        <v>0.2916285781917054</v>
       </c>
       <c r="D13">
-        <v>0.3763387991426015</v>
+        <v>0.3452350982200869</v>
       </c>
       <c r="E13">
-        <v>0.07562787721844799</v>
+        <v>2.49369687121947</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008055156141165919</v>
+        <v>4.688121580931977</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.432681261962728</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02254956468566061</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8549123125482652</v>
+        <v>2.024293959182529</v>
       </c>
       <c r="L13">
-        <v>0.5083973295033104</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.0220917121739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.860155026753887</v>
+        <v>1.852481310555731</v>
       </c>
       <c r="C14">
-        <v>0.339855466776612</v>
+        <v>0.2858380262278502</v>
       </c>
       <c r="D14">
-        <v>0.3711879036077335</v>
+        <v>0.338428866187428</v>
       </c>
       <c r="E14">
-        <v>0.07492962433704164</v>
+        <v>2.44012399873354</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008082960117314066</v>
+        <v>4.607387303936378</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.395568918762592</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02234313162670176</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8373208424326748</v>
+        <v>1.983363270806365</v>
       </c>
       <c r="L14">
-        <v>0.500342548723566</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.76342258898916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.814295255109698</v>
+        <v>1.829326284697146</v>
       </c>
       <c r="C15">
-        <v>0.3345917674174075</v>
+        <v>0.2823107271978103</v>
       </c>
       <c r="D15">
-        <v>0.3680577162747198</v>
+        <v>0.3342776332309398</v>
       </c>
       <c r="E15">
-        <v>0.07450533356305655</v>
+        <v>2.407536050484737</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008099963094819253</v>
+        <v>4.558201259577856</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.372965083907218</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02221785125252662</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.826653414598681</v>
+        <v>1.958411614582872</v>
       </c>
       <c r="L15">
-        <v>0.4954557270971662</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.60600547544908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.55792367877973</v>
+        <v>1.698167362575219</v>
       </c>
       <c r="C16">
-        <v>0.3052647203627146</v>
+        <v>0.2623755663306468</v>
       </c>
       <c r="D16">
-        <v>0.3504769188187993</v>
+        <v>0.3107441517039007</v>
       </c>
       <c r="E16">
-        <v>0.07212287666838435</v>
+        <v>2.224014348382369</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008197061869066354</v>
+        <v>4.280163273543394</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.245284890715538</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02151614515465639</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7670611229100928</v>
+        <v>1.817134243176611</v>
       </c>
       <c r="L16">
-        <v>0.4681246213413459</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.71845862657457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.405917197206406</v>
+        <v>1.618964447767468</v>
       </c>
       <c r="C17">
-        <v>0.2879508646550164</v>
+        <v>0.2503721606632041</v>
       </c>
       <c r="D17">
-        <v>0.3399856234472196</v>
+        <v>0.2965176840826729</v>
       </c>
       <c r="E17">
-        <v>0.07070171574134321</v>
+        <v>2.114052714995083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000825641477823028</v>
+        <v>4.112754370117841</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.168490768089953</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02109850371084754</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.731760518607345</v>
+        <v>1.731866179240797</v>
       </c>
       <c r="L17">
-        <v>0.4519117365518355</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.18577998286457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.320250979623779</v>
+        <v>1.573830825376916</v>
       </c>
       <c r="C18">
-        <v>0.2782158860484856</v>
+        <v>0.2435429755074807</v>
       </c>
       <c r="D18">
-        <v>0.3340502654473312</v>
+        <v>0.2884058226435258</v>
       </c>
       <c r="E18">
-        <v>0.06989793029259417</v>
+        <v>2.051674921585686</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008290506671778254</v>
+        <v>4.017529881333076</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.124839467232306</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02086240378578097</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7118763180911927</v>
+        <v>1.683290364946288</v>
       </c>
       <c r="L18">
-        <v>0.4427728253113941</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.88330152179685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.291533640763816</v>
+        <v>1.558618144108323</v>
       </c>
       <c r="C19">
-        <v>0.2749559462723994</v>
+        <v>0.2412428510684776</v>
       </c>
       <c r="D19">
-        <v>0.3320568503162349</v>
+        <v>0.285670861047052</v>
       </c>
       <c r="E19">
-        <v>0.06962801553992293</v>
+        <v>2.030695767412396</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000830204449565871</v>
+        <v>3.985462759898269</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.110144937781229</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02078311898497365</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7052122477243543</v>
+        <v>1.66691964567454</v>
       </c>
       <c r="L19">
-        <v>0.4397090280452147</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.78151983783701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.421912312482505</v>
+        <v>1.627351196509437</v>
       </c>
       <c r="C20">
-        <v>0.2897702829126558</v>
+        <v>0.2516420184929586</v>
       </c>
       <c r="D20">
-        <v>0.3410920041030323</v>
+        <v>0.2980246435681266</v>
       </c>
       <c r="E20">
-        <v>0.07085156418771632</v>
+        <v>2.125666325841451</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008250102044477036</v>
+        <v>4.130463067031485</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.176610984183611</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02114252360340085</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.735473982058096</v>
+        <v>1.740893652007998</v>
       </c>
       <c r="L20">
-        <v>0.4536179755609169</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.2420712072217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.882266905544839</v>
+        <v>1.863613514610478</v>
       </c>
       <c r="C21">
-        <v>0.3423954139097134</v>
+        <v>0.2875347168450446</v>
       </c>
       <c r="D21">
-        <v>0.3726955994607835</v>
+        <v>0.3404242740302692</v>
       </c>
       <c r="E21">
-        <v>0.07513399944974353</v>
+        <v>2.455811716872191</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008074799416941627</v>
+        <v>4.631044856982669</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.406442634321934</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0224035189206413</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8424651186733598</v>
+        <v>1.995360383993017</v>
       </c>
       <c r="L21">
-        <v>0.5026985291117683</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.83918340943228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.20280212284996</v>
+        <v>2.022699618432654</v>
       </c>
       <c r="C22">
-        <v>0.3793651371942417</v>
+        <v>0.3118461798324432</v>
       </c>
       <c r="D22">
-        <v>0.3944389578804675</v>
+        <v>0.3689125951860888</v>
       </c>
       <c r="E22">
-        <v>0.07808202493510308</v>
+        <v>2.681476987628471</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007959076384957993</v>
+        <v>4.969845337684092</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.562280099304701</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02327816056865295</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9170996441573749</v>
+        <v>2.16689145346669</v>
       </c>
       <c r="L22">
-        <v>0.5368295811727677</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.92766944585026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.029709138694614</v>
+        <v>1.937315605512964</v>
       </c>
       <c r="C23">
-        <v>0.3593655480397331</v>
+        <v>0.2987825492221958</v>
       </c>
       <c r="D23">
-        <v>0.3827231748814626</v>
+        <v>0.3536288885727004</v>
       </c>
       <c r="E23">
-        <v>0.07649343361396177</v>
+        <v>2.56001269543809</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008020985951124889</v>
+        <v>4.787840851654437</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.478537800539641</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02280595656548989</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8767813490348573</v>
+        <v>2.074807949842523</v>
       </c>
       <c r="L23">
-        <v>0.5184035675981136</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.34209280394373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.414675590490617</v>
+        <v>1.623558307383121</v>
       </c>
       <c r="C24">
-        <v>0.2889470477945082</v>
+        <v>0.2510676942759886</v>
       </c>
       <c r="D24">
-        <v>0.3405915118131162</v>
+        <v>0.2973431396472535</v>
       </c>
       <c r="E24">
-        <v>0.07078377669297353</v>
+        <v>2.12041321624379</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008252956116155656</v>
+        <v>4.12245380717232</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.172938291834413</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02112260986739578</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7337938562826025</v>
+        <v>1.736810953577134</v>
       </c>
       <c r="L24">
-        <v>0.4528460217781145</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.21661031754286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.81732934085062</v>
+        <v>1.300878864750047</v>
       </c>
       <c r="C25">
-        <v>0.2213378390316905</v>
+        <v>0.2023895342412345</v>
       </c>
       <c r="D25">
-        <v>0.2988550277573125</v>
+        <v>0.2392772406010124</v>
       </c>
       <c r="E25">
-        <v>0.06513609748281546</v>
+        <v>1.678673279640918</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008501664623055629</v>
+        <v>3.444563143779135</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.862722219951877</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01945968804780041</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5952737100603542</v>
+        <v>1.389705925658262</v>
       </c>
       <c r="L25">
-        <v>0.3891165272412991</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.06968486078335</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.072842793085272</v>
+        <v>0.4434269841259209</v>
       </c>
       <c r="C2">
-        <v>0.1681524312130591</v>
+        <v>0.04220382097970798</v>
       </c>
       <c r="D2">
-        <v>0.1981502311353012</v>
+        <v>0.07802026236547022</v>
       </c>
       <c r="E2">
-        <v>1.372361408571493</v>
+        <v>0.4067577100716733</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.970277997070013</v>
+        <v>1.889026574525104</v>
       </c>
       <c r="H2">
-        <v>1.646608096080456</v>
+        <v>1.504283462932847</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.144603192768187</v>
+        <v>0.4086080624752526</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9226226931982353</v>
+        <v>0.407707959379735</v>
       </c>
       <c r="C3">
-        <v>0.1456314968049526</v>
+        <v>0.03660660074201871</v>
       </c>
       <c r="D3">
-        <v>0.1710234408827631</v>
+        <v>0.07082813792298737</v>
       </c>
       <c r="E3">
-        <v>1.173059579429207</v>
+        <v>0.3547810395071878</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.660484541998471</v>
+        <v>1.80454844583582</v>
       </c>
       <c r="H3">
-        <v>1.506007839452906</v>
+        <v>1.468146982374435</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9831676141018875</v>
+        <v>0.3698983548372894</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8320578824188942</v>
+        <v>0.3861192475179678</v>
       </c>
       <c r="C4">
-        <v>0.1320512915754648</v>
+        <v>0.03317828547264412</v>
       </c>
       <c r="D4">
-        <v>0.154658493368828</v>
+        <v>0.06645224281474782</v>
       </c>
       <c r="E4">
-        <v>1.053809724237212</v>
+        <v>0.3229862608060898</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.474916330039861</v>
+        <v>1.753284275759285</v>
       </c>
       <c r="H4">
-        <v>1.422058854164874</v>
+        <v>1.446407518835201</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8858286653101004</v>
+        <v>0.3464372613667308</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7955110826721636</v>
+        <v>0.3774072398058763</v>
       </c>
       <c r="C5">
-        <v>0.1265678850555361</v>
+        <v>0.03178312667584748</v>
       </c>
       <c r="D5">
-        <v>0.148052607820901</v>
+        <v>0.06467898304002517</v>
       </c>
       <c r="E5">
-        <v>1.005873316415332</v>
+        <v>0.3100571262850735</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.400318809670836</v>
+        <v>1.732543573576919</v>
       </c>
       <c r="H5">
-        <v>1.388379418445737</v>
+        <v>1.437660231697464</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8465416145328106</v>
+        <v>0.3369529706430683</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7894625253577772</v>
+        <v>0.3759657666438727</v>
       </c>
       <c r="C6">
-        <v>0.1256601094660112</v>
+        <v>0.03155157089616978</v>
       </c>
       <c r="D6">
-        <v>0.1469592267629025</v>
+        <v>0.06438513198555995</v>
       </c>
       <c r="E6">
-        <v>0.9979498736227157</v>
+        <v>0.3079118428106256</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.387989738340451</v>
+        <v>1.729108575748853</v>
       </c>
       <c r="H6">
-        <v>1.382817139314255</v>
+        <v>1.436214468371048</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8400390485167293</v>
+        <v>0.3353826947219716</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8315636221011289</v>
+        <v>0.3860014087395882</v>
       </c>
       <c r="C7">
-        <v>0.1319771499581748</v>
+        <v>0.03315946241660583</v>
       </c>
       <c r="D7">
-        <v>0.1545691619965766</v>
+        <v>0.06642828788305621</v>
       </c>
       <c r="E7">
-        <v>1.053160726247626</v>
+        <v>0.3228117858470512</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.473906322015807</v>
+        <v>1.753003955849096</v>
       </c>
       <c r="H7">
-        <v>1.421602579163704</v>
+        <v>1.446289098922165</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8852973768341599</v>
+        <v>0.346309045110786</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020661438619243</v>
+        <v>0.431039478636734</v>
       </c>
       <c r="C8">
-        <v>0.1603283843183476</v>
+        <v>0.04027203022099002</v>
       </c>
       <c r="D8">
-        <v>0.188730068291477</v>
+        <v>0.07553201439129964</v>
       </c>
       <c r="E8">
-        <v>1.302913584908694</v>
+        <v>0.3888099342955087</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.862405055694865</v>
+        <v>1.859771285243227</v>
       </c>
       <c r="H8">
-        <v>1.597592122646404</v>
+        <v>1.491729873330257</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.08852637842287</v>
+        <v>0.3951967403294816</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407848986095729</v>
+        <v>0.5221153435555834</v>
       </c>
       <c r="C9">
-        <v>0.2184901498671366</v>
+        <v>0.05429638981948415</v>
       </c>
       <c r="D9">
-        <v>0.2585446812713315</v>
+        <v>0.09370943243905572</v>
       </c>
       <c r="E9">
-        <v>1.824002620695708</v>
+        <v>0.5192945316018864</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.668483974737825</v>
+        <v>2.074070071428963</v>
       </c>
       <c r="H9">
-        <v>1.965042689663164</v>
+        <v>1.584450513604139</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.504727995359019</v>
+        <v>0.4935444995633986</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.707265003842224</v>
+        <v>0.590766457380937</v>
       </c>
       <c r="C10">
-        <v>0.2637559637080216</v>
+        <v>0.06466169599059413</v>
       </c>
       <c r="D10">
-        <v>0.312377551412979</v>
+        <v>0.107273510326408</v>
       </c>
       <c r="E10">
-        <v>2.236686175489467</v>
+        <v>0.6159814252814328</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.299416844297042</v>
+        <v>2.234705258035859</v>
       </c>
       <c r="H10">
-        <v>2.254121086098962</v>
+        <v>1.654855060745831</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.826930654145428</v>
+        <v>0.5673823253993078</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.848047106988815</v>
+        <v>0.6223880691990473</v>
       </c>
       <c r="C11">
-        <v>0.2851623559494243</v>
+        <v>0.06939384698712558</v>
       </c>
       <c r="D11">
-        <v>0.3376339832588968</v>
+        <v>0.1134920562779627</v>
       </c>
       <c r="E11">
-        <v>2.433878939865139</v>
+        <v>0.6601830527532684</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.597965861741329</v>
+        <v>2.308516274226008</v>
       </c>
       <c r="H11">
-        <v>2.391238849310923</v>
+        <v>1.687397692495495</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.978584762928079</v>
+        <v>0.6013325148822446</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.90214709530747</v>
+        <v>0.6344196348586877</v>
       </c>
       <c r="C12">
-        <v>0.2934121925110418</v>
+        <v>0.07118847818139784</v>
       </c>
       <c r="D12">
-        <v>0.3473293863931417</v>
+        <v>0.1158539607909006</v>
       </c>
       <c r="E12">
-        <v>2.510217279327193</v>
+        <v>0.6769554281978003</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.712986136836548</v>
+        <v>2.336575643128924</v>
       </c>
       <c r="H12">
-        <v>2.444113644325398</v>
+        <v>1.699796161453037</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.036893648727329</v>
+        <v>0.6142416418597065</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.890458297820089</v>
+        <v>0.6318258673706225</v>
       </c>
       <c r="C13">
-        <v>0.2916285781917054</v>
+        <v>0.07080184977991166</v>
       </c>
       <c r="D13">
-        <v>0.3452350982200869</v>
+        <v>0.1153449652963303</v>
       </c>
       <c r="E13">
-        <v>2.49369687121947</v>
+        <v>0.6733416320247869</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.688121580931977</v>
+        <v>2.330527676118322</v>
       </c>
       <c r="H13">
-        <v>2.432681261962728</v>
+        <v>1.697122562106131</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.024293959182529</v>
+        <v>0.6114590600020335</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.852481310555731</v>
+        <v>0.6233767633909792</v>
       </c>
       <c r="C14">
-        <v>0.2858380262278502</v>
+        <v>0.06954143753617359</v>
       </c>
       <c r="D14">
-        <v>0.338428866187428</v>
+        <v>0.1136862289103959</v>
       </c>
       <c r="E14">
-        <v>2.44012399873354</v>
+        <v>0.6615622250334923</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.607387303936378</v>
+        <v>2.310822540400352</v>
       </c>
       <c r="H14">
-        <v>2.395568918762592</v>
+        <v>1.688416206403019</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.983363270806365</v>
+        <v>0.6023934898821324</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.829326284697146</v>
+        <v>0.6182089095203764</v>
       </c>
       <c r="C15">
-        <v>0.2823107271978103</v>
+        <v>0.06876975318820655</v>
       </c>
       <c r="D15">
-        <v>0.3342776332309398</v>
+        <v>0.1126711309400861</v>
       </c>
       <c r="E15">
-        <v>2.407536050484737</v>
+        <v>0.6543515328023091</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.558201259577856</v>
+        <v>2.298766818134141</v>
       </c>
       <c r="H15">
-        <v>2.372965083907218</v>
+        <v>1.683093151426647</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.958411614582872</v>
+        <v>0.5968474896675673</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.698167362575219</v>
+        <v>0.5887078638275511</v>
       </c>
       <c r="C16">
-        <v>0.2623755663306468</v>
+        <v>0.06435279928577131</v>
       </c>
       <c r="D16">
-        <v>0.3107441517039007</v>
+        <v>0.1068680958023407</v>
       </c>
       <c r="E16">
-        <v>2.224014348382369</v>
+        <v>0.613097374723452</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.280163273543394</v>
+        <v>2.229896602081993</v>
       </c>
       <c r="H16">
-        <v>2.245284890715538</v>
+        <v>1.652738792596324</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.817134243176611</v>
+        <v>0.5651709511374747</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.618964447767468</v>
+        <v>0.5707108567624459</v>
       </c>
       <c r="C17">
-        <v>0.2503721606632041</v>
+        <v>0.06164764093698238</v>
       </c>
       <c r="D17">
-        <v>0.2965176840826729</v>
+        <v>0.1033205659773415</v>
       </c>
       <c r="E17">
-        <v>2.114052714995083</v>
+        <v>0.5878471614115313</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.112754370117841</v>
+        <v>2.187837712572446</v>
       </c>
       <c r="H17">
-        <v>2.168490768089953</v>
+        <v>1.634250185104406</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.731866179240797</v>
+        <v>0.5458315955117712</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.573830825376916</v>
+        <v>0.5603962906487254</v>
       </c>
       <c r="C18">
-        <v>0.2435429755074807</v>
+        <v>0.06009328378560497</v>
       </c>
       <c r="D18">
-        <v>0.2884058226435258</v>
+        <v>0.1012846464611528</v>
       </c>
       <c r="E18">
-        <v>2.051674921585686</v>
+        <v>0.5733442819012424</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.017529881333076</v>
+        <v>2.163715781931018</v>
       </c>
       <c r="H18">
-        <v>2.124839467232306</v>
+        <v>1.623664452895241</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.683290364946288</v>
+        <v>0.5347420257095337</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558618144108323</v>
+        <v>0.5569102585387213</v>
       </c>
       <c r="C19">
-        <v>0.2412428510684776</v>
+        <v>0.05956726916100763</v>
       </c>
       <c r="D19">
-        <v>0.285670861047052</v>
+        <v>0.1005960919398916</v>
       </c>
       <c r="E19">
-        <v>2.030695767412396</v>
+        <v>0.5684372713150054</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.985462759898269</v>
+        <v>2.155560318634286</v>
       </c>
       <c r="H19">
-        <v>2.110144937781229</v>
+        <v>1.620088587072843</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.66691964567454</v>
+        <v>0.5309930824373623</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.627351196509437</v>
+        <v>0.5726228507632811</v>
       </c>
       <c r="C20">
-        <v>0.2516420184929586</v>
+        <v>0.06193544461264366</v>
       </c>
       <c r="D20">
-        <v>0.2980246435681266</v>
+        <v>0.1036977371113466</v>
       </c>
       <c r="E20">
-        <v>2.125666325841451</v>
+        <v>0.5905329608268204</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.130463067031485</v>
+        <v>2.192307768490537</v>
       </c>
       <c r="H20">
-        <v>2.176610984183611</v>
+        <v>1.636213308527886</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.740893652007998</v>
+        <v>0.5478867854583882</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.863613514610478</v>
+        <v>0.625856912623334</v>
       </c>
       <c r="C21">
-        <v>0.2875347168450446</v>
+        <v>0.06991157685241944</v>
       </c>
       <c r="D21">
-        <v>0.3404242740302692</v>
+        <v>0.1141732467583978</v>
       </c>
       <c r="E21">
-        <v>2.455811716872191</v>
+        <v>0.66502117233901</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.631044856982669</v>
+        <v>2.31660744342912</v>
       </c>
       <c r="H21">
-        <v>2.406442634321934</v>
+        <v>1.690971421476149</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.995360383993017</v>
+        <v>0.6050548229328001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.022699618432654</v>
+        <v>0.6609819332511506</v>
       </c>
       <c r="C22">
-        <v>0.3118461798324432</v>
+        <v>0.07514010557449069</v>
       </c>
       <c r="D22">
-        <v>0.3689125951860888</v>
+        <v>0.1210609135610952</v>
       </c>
       <c r="E22">
-        <v>2.681476987628471</v>
+        <v>0.7139040714992007</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.969845337684092</v>
+        <v>2.398479566465994</v>
       </c>
       <c r="H22">
-        <v>2.562280099304701</v>
+        <v>1.727198369311054</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.16689145346669</v>
+        <v>0.6427264284079399</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.937315605512964</v>
+        <v>0.642204266441297</v>
       </c>
       <c r="C23">
-        <v>0.2987825492221958</v>
+        <v>0.07234802920930861</v>
       </c>
       <c r="D23">
-        <v>0.3536288885727004</v>
+        <v>0.1173810061546021</v>
       </c>
       <c r="E23">
-        <v>2.56001269543809</v>
+        <v>0.6877950638050692</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.787840851654437</v>
+        <v>2.354723854353722</v>
       </c>
       <c r="H23">
-        <v>2.478537800539641</v>
+        <v>1.707822767676021</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.074807949842523</v>
+        <v>0.6225917689632467</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.623558307383121</v>
+        <v>0.5717583381856457</v>
       </c>
       <c r="C24">
-        <v>0.2510676942759886</v>
+        <v>0.06180532586647303</v>
       </c>
       <c r="D24">
-        <v>0.2973431396472535</v>
+        <v>0.1035272068327799</v>
       </c>
       <c r="E24">
-        <v>2.12041321624379</v>
+        <v>0.5893186681552436</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.12245380717232</v>
+        <v>2.190286674868645</v>
       </c>
       <c r="H24">
-        <v>2.172938291834413</v>
+        <v>1.635325644647594</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.736810953577134</v>
+        <v>0.5469575441968288</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.300878864750047</v>
+        <v>0.4971759666509286</v>
       </c>
       <c r="C25">
-        <v>0.2023895342412345</v>
+        <v>0.0504927001627351</v>
       </c>
       <c r="D25">
-        <v>0.2392772406010124</v>
+        <v>0.08875603608659333</v>
       </c>
       <c r="E25">
-        <v>1.678673279640918</v>
+        <v>0.4838636042419608</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.444563143779135</v>
+        <v>2.015549892934047</v>
       </c>
       <c r="H25">
-        <v>1.862722219951877</v>
+        <v>1.558972166355062</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.389705925658262</v>
+        <v>0.4666662221212619</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4434269841259209</v>
+        <v>1.072842793085329</v>
       </c>
       <c r="C2">
-        <v>0.04220382097970798</v>
+        <v>0.1681524312133007</v>
       </c>
       <c r="D2">
-        <v>0.07802026236547022</v>
+        <v>0.1981502311354291</v>
       </c>
       <c r="E2">
-        <v>0.4067577100716733</v>
+        <v>1.372361408571479</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.889026574525104</v>
+        <v>2.970277997069957</v>
       </c>
       <c r="H2">
-        <v>1.504283462932847</v>
+        <v>1.646608096080428</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4086080624752526</v>
+        <v>1.144603192768216</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.407707959379735</v>
+        <v>0.9226226931982637</v>
       </c>
       <c r="C3">
-        <v>0.03660660074201871</v>
+        <v>0.1456314968051657</v>
       </c>
       <c r="D3">
-        <v>0.07082813792298737</v>
+        <v>0.1710234408826352</v>
       </c>
       <c r="E3">
-        <v>0.3547810395071878</v>
+        <v>1.173059579429236</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.80454844583582</v>
+        <v>2.660484541998358</v>
       </c>
       <c r="H3">
-        <v>1.468146982374435</v>
+        <v>1.506007839452906</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3698983548372894</v>
+        <v>0.9831676141018875</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3861192475179678</v>
+        <v>0.8320578824189511</v>
       </c>
       <c r="C4">
-        <v>0.03317828547264412</v>
+        <v>0.1320512915754648</v>
       </c>
       <c r="D4">
-        <v>0.06645224281474782</v>
+        <v>0.154658493368828</v>
       </c>
       <c r="E4">
-        <v>0.3229862608060898</v>
+        <v>1.053809724237126</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.753284275759285</v>
+        <v>2.474916330039946</v>
       </c>
       <c r="H4">
-        <v>1.446407518835201</v>
+        <v>1.422058854164874</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3464372613667308</v>
+        <v>0.8858286653100151</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3774072398058763</v>
+        <v>0.7955110826719931</v>
       </c>
       <c r="C5">
-        <v>0.03178312667584748</v>
+        <v>0.1265678850550671</v>
       </c>
       <c r="D5">
-        <v>0.06467898304002517</v>
+        <v>0.1480526078211284</v>
       </c>
       <c r="E5">
-        <v>0.3100571262850735</v>
+        <v>1.005873316415347</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.732543573576919</v>
+        <v>2.400318809670949</v>
       </c>
       <c r="H5">
-        <v>1.437660231697464</v>
+        <v>1.388379418445851</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3369529706430683</v>
+        <v>0.8465416145328106</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3759657666438727</v>
+        <v>0.7894625253579477</v>
       </c>
       <c r="C6">
-        <v>0.03155157089616978</v>
+        <v>0.1256601094664802</v>
       </c>
       <c r="D6">
-        <v>0.06438513198555995</v>
+        <v>0.146959226762803</v>
       </c>
       <c r="E6">
-        <v>0.3079118428106256</v>
+        <v>0.9979498736227157</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.729108575748853</v>
+        <v>2.387989738340451</v>
       </c>
       <c r="H6">
-        <v>1.436214468371048</v>
+        <v>1.38281713931417</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3353826947219716</v>
+        <v>0.8400390485166156</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3860014087395882</v>
+        <v>0.8315636221011289</v>
       </c>
       <c r="C7">
-        <v>0.03315946241660583</v>
+        <v>0.1319771499581748</v>
       </c>
       <c r="D7">
-        <v>0.06642828788305621</v>
+        <v>0.1545691619967045</v>
       </c>
       <c r="E7">
-        <v>0.3228117858470512</v>
+        <v>1.053160726247626</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.753003955849096</v>
+        <v>2.473906322015807</v>
       </c>
       <c r="H7">
-        <v>1.446289098922165</v>
+        <v>1.42160257916359</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.346309045110786</v>
+        <v>0.8852973768341883</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.431039478636734</v>
+        <v>1.020661438619385</v>
       </c>
       <c r="C8">
-        <v>0.04027203022099002</v>
+        <v>0.1603283843187739</v>
       </c>
       <c r="D8">
-        <v>0.07553201439129964</v>
+        <v>0.1887300682915765</v>
       </c>
       <c r="E8">
-        <v>0.3888099342955087</v>
+        <v>1.302913584908737</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.859771285243227</v>
+        <v>2.862405055694836</v>
       </c>
       <c r="H8">
-        <v>1.491729873330257</v>
+        <v>1.597592122646432</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3951967403294816</v>
+        <v>1.088526378422841</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5221153435555834</v>
+        <v>1.407848986095644</v>
       </c>
       <c r="C9">
-        <v>0.05429638981948415</v>
+        <v>0.2184901498676766</v>
       </c>
       <c r="D9">
-        <v>0.09370943243905572</v>
+        <v>0.258544681271573</v>
       </c>
       <c r="E9">
-        <v>0.5192945316018864</v>
+        <v>1.824002620695708</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.074070071428963</v>
+        <v>3.668483974737768</v>
       </c>
       <c r="H9">
-        <v>1.584450513604139</v>
+        <v>1.965042689663193</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4935444995633986</v>
+        <v>1.504727995359076</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.590766457380937</v>
+        <v>1.707265003841997</v>
       </c>
       <c r="C10">
-        <v>0.06466169599059413</v>
+        <v>0.2637559637075526</v>
       </c>
       <c r="D10">
-        <v>0.107273510326408</v>
+        <v>0.3123775514127516</v>
       </c>
       <c r="E10">
-        <v>0.6159814252814328</v>
+        <v>2.236686175489453</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.234705258035859</v>
+        <v>4.299416844297042</v>
       </c>
       <c r="H10">
-        <v>1.654855060745831</v>
+        <v>2.254121086098905</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5673823253993078</v>
+        <v>1.8269306541454</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6223880691990473</v>
+        <v>1.848047106988759</v>
       </c>
       <c r="C11">
-        <v>0.06939384698712558</v>
+        <v>0.2851623559495948</v>
       </c>
       <c r="D11">
-        <v>0.1134920562779627</v>
+        <v>0.3376339832590673</v>
       </c>
       <c r="E11">
-        <v>0.6601830527532684</v>
+        <v>2.43387893986511</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.308516274226008</v>
+        <v>4.597965861741386</v>
       </c>
       <c r="H11">
-        <v>1.687397692495495</v>
+        <v>2.391238849310923</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6013325148822446</v>
+        <v>1.978584762927937</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6344196348586877</v>
+        <v>1.902147095307583</v>
       </c>
       <c r="C12">
-        <v>0.07118847818139784</v>
+        <v>0.293412192511326</v>
       </c>
       <c r="D12">
-        <v>0.1158539607909006</v>
+        <v>0.3473293863932838</v>
       </c>
       <c r="E12">
-        <v>0.6769554281978003</v>
+        <v>2.510217279327151</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.336575643128924</v>
+        <v>4.712986136836662</v>
       </c>
       <c r="H12">
-        <v>1.699796161453037</v>
+        <v>2.444113644325455</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6142416418597065</v>
+        <v>2.036893648727357</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6318258673706225</v>
+        <v>1.890458297819947</v>
       </c>
       <c r="C13">
-        <v>0.07080184977991166</v>
+        <v>0.2916285781913643</v>
       </c>
       <c r="D13">
-        <v>0.1153449652963303</v>
+        <v>0.345235098219618</v>
       </c>
       <c r="E13">
-        <v>0.6733416320247869</v>
+        <v>2.493696871219512</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.330527676118322</v>
+        <v>4.68812158093192</v>
       </c>
       <c r="H13">
-        <v>1.697122562106131</v>
+        <v>2.432681261962671</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6114590600020335</v>
+        <v>2.024293959182444</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6233767633909792</v>
+        <v>1.852481310555561</v>
       </c>
       <c r="C14">
-        <v>0.06954143753617359</v>
+        <v>0.2858380262278786</v>
       </c>
       <c r="D14">
-        <v>0.1136862289103959</v>
+        <v>0.3384288661873995</v>
       </c>
       <c r="E14">
-        <v>0.6615622250334923</v>
+        <v>2.440123998733469</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.310822540400352</v>
+        <v>4.607387303936378</v>
       </c>
       <c r="H14">
-        <v>1.688416206403019</v>
+        <v>2.395568918762649</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6023934898821324</v>
+        <v>1.983363270806251</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6182089095203764</v>
+        <v>1.829326284697117</v>
       </c>
       <c r="C15">
-        <v>0.06876975318820655</v>
+        <v>0.2823107271981229</v>
       </c>
       <c r="D15">
-        <v>0.1126711309400861</v>
+        <v>0.3342776332313093</v>
       </c>
       <c r="E15">
-        <v>0.6543515328023091</v>
+        <v>2.407536050484723</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.298766818134141</v>
+        <v>4.558201259577856</v>
       </c>
       <c r="H15">
-        <v>1.683093151426647</v>
+        <v>2.372965083907047</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5968474896675673</v>
+        <v>1.958411614582872</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5887078638275511</v>
+        <v>1.698167362575276</v>
       </c>
       <c r="C16">
-        <v>0.06435279928577131</v>
+        <v>0.2623755663303484</v>
       </c>
       <c r="D16">
-        <v>0.1068680958023407</v>
+        <v>0.3107441517038865</v>
       </c>
       <c r="E16">
-        <v>0.613097374723452</v>
+        <v>2.224014348382411</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.229896602081993</v>
+        <v>4.280163273543451</v>
       </c>
       <c r="H16">
-        <v>1.652738792596324</v>
+        <v>2.245284890715538</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5651709511374747</v>
+        <v>1.817134243176724</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5707108567624459</v>
+        <v>1.618964447767581</v>
       </c>
       <c r="C17">
-        <v>0.06164764093698238</v>
+        <v>0.2503721606631899</v>
       </c>
       <c r="D17">
-        <v>0.1033205659773415</v>
+        <v>0.296517684082815</v>
       </c>
       <c r="E17">
-        <v>0.5878471614115313</v>
+        <v>2.114052714995083</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.187837712572446</v>
+        <v>4.112754370117784</v>
       </c>
       <c r="H17">
-        <v>1.634250185104406</v>
+        <v>2.168490768090066</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5458315955117712</v>
+        <v>1.731866179240853</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5603962906487254</v>
+        <v>1.573830825377001</v>
       </c>
       <c r="C18">
-        <v>0.06009328378560497</v>
+        <v>0.2435429755074949</v>
       </c>
       <c r="D18">
-        <v>0.1012846464611528</v>
+        <v>0.2884058226435258</v>
       </c>
       <c r="E18">
-        <v>0.5733442819012424</v>
+        <v>2.0516749215857</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.163715781931018</v>
+        <v>4.017529881333019</v>
       </c>
       <c r="H18">
-        <v>1.623664452895241</v>
+        <v>2.124839467232363</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5347420257095337</v>
+        <v>1.683290364946288</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5569102585387213</v>
+        <v>1.558618144108493</v>
       </c>
       <c r="C19">
-        <v>0.05956726916100763</v>
+        <v>0.2412428510681934</v>
       </c>
       <c r="D19">
-        <v>0.1005960919398916</v>
+        <v>0.2856708610467962</v>
       </c>
       <c r="E19">
-        <v>0.5684372713150054</v>
+        <v>2.03069576741234</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.155560318634286</v>
+        <v>3.985462759898297</v>
       </c>
       <c r="H19">
-        <v>1.620088587072843</v>
+        <v>2.1101449377812</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5309930824373623</v>
+        <v>1.666919645674398</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5726228507632811</v>
+        <v>1.627351196509437</v>
       </c>
       <c r="C20">
-        <v>0.06193544461264366</v>
+        <v>0.2516420184932144</v>
       </c>
       <c r="D20">
-        <v>0.1036977371113466</v>
+        <v>0.2980246435681551</v>
       </c>
       <c r="E20">
-        <v>0.5905329608268204</v>
+        <v>2.125666325841451</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.192307768490537</v>
+        <v>4.130463067031457</v>
       </c>
       <c r="H20">
-        <v>1.636213308527886</v>
+        <v>2.176610984183611</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5478867854583882</v>
+        <v>1.740893652008197</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.625856912623334</v>
+        <v>1.863613514610364</v>
       </c>
       <c r="C21">
-        <v>0.06991157685241944</v>
+        <v>0.2875347168450446</v>
       </c>
       <c r="D21">
-        <v>0.1141732467583978</v>
+        <v>0.3404242740306671</v>
       </c>
       <c r="E21">
-        <v>0.66502117233901</v>
+        <v>2.455811716872191</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.31660744342912</v>
+        <v>4.631044856982669</v>
       </c>
       <c r="H21">
-        <v>1.690971421476149</v>
+        <v>2.406442634321934</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6050548229328001</v>
+        <v>1.995360383993017</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6609819332511506</v>
+        <v>2.02269961843237</v>
       </c>
       <c r="C22">
-        <v>0.07514010557449069</v>
+        <v>0.3118461798319316</v>
       </c>
       <c r="D22">
-        <v>0.1210609135610952</v>
+        <v>0.368912595186103</v>
       </c>
       <c r="E22">
-        <v>0.7139040714992007</v>
+        <v>2.681476987628457</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.398479566465994</v>
+        <v>4.969845337683864</v>
       </c>
       <c r="H22">
-        <v>1.727198369311054</v>
+        <v>2.562280099304701</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6427264284079399</v>
+        <v>2.166891453466633</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.642204266441297</v>
+        <v>1.937315605512794</v>
       </c>
       <c r="C23">
-        <v>0.07234802920930861</v>
+        <v>0.29878254922221</v>
       </c>
       <c r="D23">
-        <v>0.1173810061546021</v>
+        <v>0.3536288885728567</v>
       </c>
       <c r="E23">
-        <v>0.6877950638050692</v>
+        <v>2.560012695438132</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.354723854353722</v>
+        <v>4.78784085165438</v>
       </c>
       <c r="H23">
-        <v>1.707822767676021</v>
+        <v>2.478537800539641</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6225917689632467</v>
+        <v>2.07480794984258</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5717583381856457</v>
+        <v>1.623558307383405</v>
       </c>
       <c r="C24">
-        <v>0.06180532586647303</v>
+        <v>0.2510676942762871</v>
       </c>
       <c r="D24">
-        <v>0.1035272068327799</v>
+        <v>0.297343139647154</v>
       </c>
       <c r="E24">
-        <v>0.5893186681552436</v>
+        <v>2.120413216243776</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.190286674868645</v>
+        <v>4.122453807172207</v>
       </c>
       <c r="H24">
-        <v>1.635325644647594</v>
+        <v>2.172938291834384</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5469575441968288</v>
+        <v>1.736810953577105</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4971759666509286</v>
+        <v>1.300878864750217</v>
       </c>
       <c r="C25">
-        <v>0.0504927001627351</v>
+        <v>0.2023895342412345</v>
       </c>
       <c r="D25">
-        <v>0.08875603608659333</v>
+        <v>0.2392772406010977</v>
       </c>
       <c r="E25">
-        <v>0.4838636042419608</v>
+        <v>1.678673279640975</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.015549892934047</v>
+        <v>3.44456314377922</v>
       </c>
       <c r="H25">
-        <v>1.558972166355062</v>
+        <v>1.862722219951877</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4666662221212619</v>
+        <v>1.389705925658205</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.072842793085329</v>
+        <v>1.092955925834872</v>
       </c>
       <c r="C2">
-        <v>0.1681524312133007</v>
+        <v>0.123607990922963</v>
       </c>
       <c r="D2">
-        <v>0.1981502311354291</v>
+        <v>0.3056838740018151</v>
       </c>
       <c r="E2">
-        <v>1.372361408571479</v>
+        <v>0.07924844933766195</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.970277997069957</v>
+        <v>0.5304084219283638</v>
       </c>
       <c r="H2">
-        <v>1.646608096080428</v>
+        <v>0.01340127096020319</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01387640169162285</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4468624058906201</v>
       </c>
       <c r="K2">
-        <v>1.144603192768216</v>
+        <v>0.4966551635420871</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02501929856989626</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9565237245205367</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.267870120890251</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>2.005400705651823</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9226226931982637</v>
+        <v>0.9523974743739245</v>
       </c>
       <c r="C3">
-        <v>0.1456314968051657</v>
+        <v>0.1162004708902629</v>
       </c>
       <c r="D3">
-        <v>0.1710234408826352</v>
+        <v>0.2824176855140905</v>
       </c>
       <c r="E3">
-        <v>1.173059579429236</v>
+        <v>0.07420030670055588</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.660484541998358</v>
+        <v>0.5225238507862429</v>
       </c>
       <c r="H3">
-        <v>1.506007839452906</v>
+        <v>0.01648648005762993</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.016736831006817</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4475703221695682</v>
       </c>
       <c r="K3">
-        <v>0.9831676141018875</v>
+        <v>0.4984821442778085</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.02331131506254902</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8350173973233268</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2394873681680281</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.989874349297011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8320578824189511</v>
+        <v>0.8658590840580871</v>
       </c>
       <c r="C4">
-        <v>0.1320512915754648</v>
+        <v>0.1116810945186657</v>
       </c>
       <c r="D4">
-        <v>0.154658493368828</v>
+        <v>0.2682373570489034</v>
       </c>
       <c r="E4">
-        <v>1.053809724237126</v>
+        <v>0.07108303234561397</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.474916330039946</v>
+        <v>0.518066281310837</v>
       </c>
       <c r="H4">
-        <v>1.422058854164874</v>
+        <v>0.01861893076153198</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01873342199399408</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4482691875653657</v>
       </c>
       <c r="K4">
-        <v>0.8858286653100151</v>
+        <v>0.4998424740273819</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.02225053936908505</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7604081706182342</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2221360039430778</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.981699564986371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7955110826719931</v>
+        <v>0.8302265000107525</v>
       </c>
       <c r="C5">
-        <v>0.1265678850550671</v>
+        <v>0.1100144629686568</v>
       </c>
       <c r="D5">
-        <v>0.1480526078211284</v>
+        <v>0.2624093586311886</v>
       </c>
       <c r="E5">
-        <v>1.005873316415347</v>
+        <v>0.06976844178180741</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.400318809670949</v>
+        <v>0.5158487154308844</v>
       </c>
       <c r="H5">
-        <v>1.388379418445851</v>
+        <v>0.01955145510583117</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01969670600459716</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4483609385612723</v>
       </c>
       <c r="K5">
-        <v>0.8465416145328106</v>
+        <v>0.500031444870654</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.02180218563641034</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7303219612096399</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.215223073234398</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.977111689809234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7894625253579477</v>
+        <v>0.823932338379052</v>
       </c>
       <c r="C6">
-        <v>0.1256601094664802</v>
+        <v>0.1099463899898367</v>
       </c>
       <c r="D6">
-        <v>0.146959226762803</v>
+        <v>0.2613521280406559</v>
       </c>
       <c r="E6">
-        <v>0.9979498736227157</v>
+        <v>0.06950140495825252</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.387989738340451</v>
+        <v>0.5148823633846078</v>
       </c>
       <c r="H6">
-        <v>1.38281713931417</v>
+        <v>0.01971651327117885</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01997868014997906</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.448064742697305</v>
       </c>
       <c r="K6">
-        <v>0.8400390485166156</v>
+        <v>0.4995486754008134</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.02171217741245357</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7257223768650078</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.2142487313823978</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.974429512391538</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8315636221011289</v>
+        <v>0.8643546340676949</v>
       </c>
       <c r="C7">
-        <v>0.1319771499581748</v>
+        <v>0.1122293835598285</v>
       </c>
       <c r="D7">
-        <v>0.1545691619967045</v>
+        <v>0.2679102547136125</v>
       </c>
       <c r="E7">
-        <v>1.053160726247626</v>
+        <v>0.07093302397999857</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.473906322015807</v>
+        <v>0.5163897753914881</v>
       </c>
       <c r="H7">
-        <v>1.42160257916359</v>
+        <v>0.01864881810172975</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01905279456925779</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4474115078980745</v>
       </c>
       <c r="K7">
-        <v>0.8852973768341883</v>
+        <v>0.4984342527195622</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.02220265141406053</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7610887843167973</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2225149228684842</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.976348187490629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.020661438619385</v>
+        <v>1.043166284293562</v>
       </c>
       <c r="C8">
-        <v>0.1603283843187739</v>
+        <v>0.1218146158059312</v>
       </c>
       <c r="D8">
-        <v>0.1887300682915765</v>
+        <v>0.2973102409683293</v>
       </c>
       <c r="E8">
-        <v>1.302913584908737</v>
+        <v>0.07733666696146813</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.862405055694836</v>
+        <v>0.5254432208911766</v>
       </c>
       <c r="H8">
-        <v>1.597592122646432</v>
+        <v>0.01443362791745284</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01518012178101902</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4459266110159632</v>
       </c>
       <c r="K8">
-        <v>1.088526378422841</v>
+        <v>0.4953863271891095</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.02437747511340849</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9160756308818634</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2586960345099811</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.992815437009241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.407848986095644</v>
+        <v>1.393991913241365</v>
       </c>
       <c r="C9">
-        <v>0.2184901498676766</v>
+        <v>0.1398655787957068</v>
       </c>
       <c r="D9">
-        <v>0.258544681271573</v>
+        <v>0.3563173897046568</v>
       </c>
       <c r="E9">
-        <v>1.824002620695708</v>
+        <v>0.09000009909242124</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.668483974737768</v>
+        <v>0.5493324476556296</v>
       </c>
       <c r="H9">
-        <v>1.965042689663193</v>
+        <v>0.008121215830119405</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009110230510778194</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4466956965073905</v>
       </c>
       <c r="K9">
-        <v>1.504727995359076</v>
+        <v>0.4938627345379523</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.02864312378149236</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.218274136569761</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3294931765458529</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2.045759817207909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.707265003841997</v>
+        <v>1.648098994519302</v>
       </c>
       <c r="C10">
-        <v>0.2637559637075526</v>
+        <v>0.154911366243546</v>
       </c>
       <c r="D10">
-        <v>0.3123775514127516</v>
+        <v>0.3944760033261474</v>
       </c>
       <c r="E10">
-        <v>2.236686175489453</v>
+        <v>0.09625329715625242</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.299416844297042</v>
+        <v>0.5604781316237393</v>
       </c>
       <c r="H10">
-        <v>2.254121086098905</v>
+        <v>0.005161897863074305</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.006193926750702516</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4442997184286099</v>
       </c>
       <c r="K10">
-        <v>1.8269306541454</v>
+        <v>0.4877242231993826</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03106720641259031</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.44360473723944</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3715820408825437</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>2.064839656263814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.848047106988759</v>
+        <v>1.740790315225638</v>
       </c>
       <c r="C11">
-        <v>0.2851623559495948</v>
+        <v>0.1746022858004466</v>
       </c>
       <c r="D11">
-        <v>0.3376339832590673</v>
+        <v>0.3627102151593249</v>
       </c>
       <c r="E11">
-        <v>2.43387893986511</v>
+        <v>0.07595669065350918</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.597965861741386</v>
+        <v>0.4982169179878042</v>
       </c>
       <c r="H11">
-        <v>2.391238849310923</v>
+        <v>0.0236438747569423</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.006064335191476644</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4089169288755414</v>
       </c>
       <c r="K11">
-        <v>1.978584762927937</v>
+        <v>0.436838359770217</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.03066451251873037</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.567943035190979</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.3032600499885945</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.858956661345786</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.902147095307583</v>
+        <v>1.766517584593686</v>
       </c>
       <c r="C12">
-        <v>0.293412192511326</v>
+        <v>0.1885135137007694</v>
       </c>
       <c r="D12">
-        <v>0.3473293863932838</v>
+        <v>0.3292872343914865</v>
       </c>
       <c r="E12">
-        <v>2.510217279327151</v>
+        <v>0.06091799933532371</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.712986136836662</v>
+        <v>0.4484535819928368</v>
       </c>
       <c r="H12">
-        <v>2.444113644325455</v>
+        <v>0.06251916133663116</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.005967951930981208</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3819805379101595</v>
       </c>
       <c r="K12">
-        <v>2.036893648727357</v>
+        <v>0.4001941378245988</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.03577138704959992</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.624332218045254</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.2425202384316094</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.69712861989008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.890458297819947</v>
+        <v>1.740312398969792</v>
       </c>
       <c r="C13">
-        <v>0.2916285781913643</v>
+        <v>0.1995243806262863</v>
       </c>
       <c r="D13">
-        <v>0.345235098219618</v>
+        <v>0.2924036050259957</v>
       </c>
       <c r="E13">
-        <v>2.493696871219512</v>
+        <v>0.04887712389408172</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.68812158093192</v>
+        <v>0.4027363581010803</v>
       </c>
       <c r="H13">
-        <v>2.432681261962671</v>
+        <v>0.1187554433868883</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.006298162962107945</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3585478286491863</v>
       </c>
       <c r="K13">
-        <v>2.024293959182444</v>
+        <v>0.3700490606364966</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04517436358018756</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.632859466362873</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.18516258331438</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.551120864013683</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.852481310555561</v>
+        <v>1.69818338735584</v>
       </c>
       <c r="C14">
-        <v>0.2858380262278786</v>
+        <v>0.206251747069345</v>
       </c>
       <c r="D14">
-        <v>0.3384288661873995</v>
+        <v>0.2653461348237869</v>
       </c>
       <c r="E14">
-        <v>2.440123998733469</v>
+        <v>0.0422703216929472</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.607387303936378</v>
+        <v>0.3727671864084101</v>
       </c>
       <c r="H14">
-        <v>2.395568918762649</v>
+        <v>0.1685671190439564</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.006830625666039758</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3437842555446551</v>
       </c>
       <c r="K14">
-        <v>1.983363270806251</v>
+        <v>0.3520844820447984</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.054392788033784</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.617464263773968</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1478894310830086</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.456614001889861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.829326284697117</v>
+        <v>1.676520457064214</v>
       </c>
       <c r="C15">
-        <v>0.2823107271981229</v>
+        <v>0.207412770359042</v>
       </c>
       <c r="D15">
-        <v>0.3342776332313093</v>
+        <v>0.2578638921756067</v>
       </c>
       <c r="E15">
-        <v>2.407536050484723</v>
+        <v>0.04087730838873949</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.558201259577856</v>
+        <v>0.3655808872436594</v>
       </c>
       <c r="H15">
-        <v>2.372965083907047</v>
+        <v>0.1813027378170204</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.007198153487197878</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3405664871941951</v>
       </c>
       <c r="K15">
-        <v>1.958411614582872</v>
+        <v>0.3484038104127816</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05678628035776967</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.603825772470572</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1388750455222976</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.434606194111481</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.698167362575276</v>
+        <v>1.57211713150312</v>
       </c>
       <c r="C16">
-        <v>0.2623755663303484</v>
+        <v>0.1986182867396451</v>
       </c>
       <c r="D16">
-        <v>0.3107441517038865</v>
+        <v>0.2495756259009596</v>
       </c>
       <c r="E16">
-        <v>2.224014348382411</v>
+        <v>0.04087091287624656</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.280163273543451</v>
+        <v>0.3691842966047219</v>
       </c>
       <c r="H16">
-        <v>2.245284890715538</v>
+        <v>0.1698147606653322</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.008493475938506911</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3457157425496433</v>
       </c>
       <c r="K16">
-        <v>1.817134243176724</v>
+        <v>0.3562089152728323</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05351973301362278</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.50484264668026</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1342264664461084</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.452829242649145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.618964447767581</v>
+        <v>1.514506077304787</v>
       </c>
       <c r="C17">
-        <v>0.2503721606631899</v>
+        <v>0.188294885982657</v>
       </c>
       <c r="D17">
-        <v>0.296517684082815</v>
+        <v>0.2573588468337107</v>
       </c>
       <c r="E17">
-        <v>2.114052714995083</v>
+        <v>0.04403045786693394</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.112754370117784</v>
+        <v>0.3876030283028484</v>
       </c>
       <c r="H17">
-        <v>2.168490768090066</v>
+        <v>0.1327700403492287</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.009247482083507563</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3574288694286025</v>
       </c>
       <c r="K17">
-        <v>1.731866179240853</v>
+        <v>0.3714933215990577</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04565196554588979</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.437388098440834</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1496264626442851</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.516282857564505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.573830825377001</v>
+        <v>1.491161680796239</v>
       </c>
       <c r="C18">
-        <v>0.2435429755074949</v>
+        <v>0.1753937107441033</v>
       </c>
       <c r="D18">
-        <v>0.2884058226435258</v>
+        <v>0.2807174138441297</v>
       </c>
       <c r="E18">
-        <v>2.0516749215857</v>
+        <v>0.05195329247755431</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.017529881333019</v>
+        <v>0.4233545941601378</v>
       </c>
       <c r="H18">
-        <v>2.124839467232363</v>
+        <v>0.08010841958508763</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.009209146436854887</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3773058589456468</v>
       </c>
       <c r="K18">
-        <v>1.683290364946288</v>
+        <v>0.3972784275818952</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03567288852170947</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.388514600913282</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1872563258681339</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.633632416863975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.558618144108493</v>
+        <v>1.494827979503782</v>
       </c>
       <c r="C19">
-        <v>0.2412428510681934</v>
+        <v>0.1637802878107522</v>
       </c>
       <c r="D19">
-        <v>0.2856708610467962</v>
+        <v>0.3157889580285058</v>
       </c>
       <c r="E19">
-        <v>2.03069576741234</v>
+        <v>0.06546832137510883</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.985462759898297</v>
+        <v>0.4705528514815143</v>
       </c>
       <c r="H19">
-        <v>2.1101449377812</v>
+        <v>0.03432654281830594</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.009097722365492444</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4021641864744154</v>
       </c>
       <c r="K19">
-        <v>1.666919645674398</v>
+        <v>0.430226002234221</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.02891622111574943</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.360593372752533</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2462009574845467</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.785729214058478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.627351196509437</v>
+        <v>1.5780100744403</v>
       </c>
       <c r="C20">
-        <v>0.2516420184932144</v>
+        <v>0.1529020304098836</v>
       </c>
       <c r="D20">
-        <v>0.2980246435681551</v>
+        <v>0.3834025649716466</v>
       </c>
       <c r="E20">
-        <v>2.125666325841451</v>
+        <v>0.09408886102124114</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.130463067031457</v>
+        <v>0.5520761526748856</v>
       </c>
       <c r="H20">
-        <v>2.176610984183611</v>
+        <v>0.005865176099315583</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.007765566233871368</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4420901109056956</v>
       </c>
       <c r="K20">
-        <v>1.740893652008197</v>
+        <v>0.4847930283433861</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03027662679127729</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.387959745550518</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3615407234288028</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2.042281086647762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.863613514610364</v>
+        <v>1.77719549574968</v>
       </c>
       <c r="C21">
-        <v>0.2875347168450446</v>
+        <v>0.1622976236479445</v>
       </c>
       <c r="D21">
-        <v>0.3404242740306671</v>
+        <v>0.4219541993735305</v>
       </c>
       <c r="E21">
-        <v>2.455811716872191</v>
+        <v>0.1034726946818694</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.631044856982669</v>
+        <v>0.5745771093942835</v>
       </c>
       <c r="H21">
-        <v>2.406442634321934</v>
+        <v>0.003529024270844894</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.005685284788963685</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4474476224475836</v>
       </c>
       <c r="K21">
-        <v>1.995360383993017</v>
+        <v>0.4901716142555124</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.03321369958534337</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.557002569779115</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4103470460934489</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>2.101550684098356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.02269961843237</v>
+        <v>1.907521820096775</v>
       </c>
       <c r="C22">
-        <v>0.3118461798319316</v>
+        <v>0.1683462669721081</v>
       </c>
       <c r="D22">
-        <v>0.368912595186103</v>
+        <v>0.4447145796075631</v>
       </c>
       <c r="E22">
-        <v>2.681476987628457</v>
+        <v>0.1082849816268094</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.969845337683864</v>
+        <v>0.5878696148186719</v>
       </c>
       <c r="H22">
-        <v>2.562280099304701</v>
+        <v>0.002442560824637341</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.004290178990455473</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.4502846344460778</v>
       </c>
       <c r="K22">
-        <v>2.166891453466633</v>
+        <v>0.4928424275778589</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.03485175138308172</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.667391303052852</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4362956732109069</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>2.135891855858631</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.937315605512794</v>
+        <v>1.839228648478183</v>
       </c>
       <c r="C23">
-        <v>0.29878254922221</v>
+        <v>0.1643839309878814</v>
       </c>
       <c r="D23">
-        <v>0.3536288885728567</v>
+        <v>0.4328451277067984</v>
       </c>
       <c r="E23">
-        <v>2.560012695438132</v>
+        <v>0.1058720012605647</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.78784085165438</v>
+        <v>0.5826155320622348</v>
       </c>
       <c r="H23">
-        <v>2.478537800539641</v>
+        <v>0.002989070520339143</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.004671802394954128</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.4497116297879842</v>
       </c>
       <c r="K23">
-        <v>2.07480794984258</v>
+        <v>0.4929829815166151</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.03402495597030786</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.607130577384282</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4218590880281425</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>2.123435733204502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.623558307383405</v>
+        <v>1.578561875706214</v>
       </c>
       <c r="C24">
-        <v>0.2510676942762871</v>
+        <v>0.1506703230345039</v>
       </c>
       <c r="D24">
-        <v>0.297343139647154</v>
+        <v>0.3877590912625948</v>
       </c>
       <c r="E24">
-        <v>2.120413216243776</v>
+        <v>0.09648156306836242</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.122453807172207</v>
+        <v>0.5607915858969079</v>
       </c>
       <c r="H24">
-        <v>2.172938291834384</v>
+        <v>0.005638768777854242</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.007198271106672038</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.4466433009944097</v>
       </c>
       <c r="K24">
-        <v>1.736810953577105</v>
+        <v>0.4916108715156469</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03083571260573592</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.381432135132258</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3683756154323987</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>2.070286383025092</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.300878864750217</v>
+        <v>1.297334429453343</v>
       </c>
       <c r="C25">
-        <v>0.2023895342412345</v>
+        <v>0.1360184800493016</v>
       </c>
       <c r="D25">
-        <v>0.2392772406010977</v>
+        <v>0.3397964793036721</v>
       </c>
       <c r="E25">
-        <v>1.678673279640975</v>
+        <v>0.08634853777497398</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.44456314377922</v>
+        <v>0.5395711379960488</v>
       </c>
       <c r="H25">
-        <v>1.862722219951877</v>
+        <v>0.009623828993461661</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01103317150424665</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4447316621301809</v>
       </c>
       <c r="K25">
-        <v>1.389705925658205</v>
+        <v>0.4915667447328822</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.02741913934640827</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.138456416275858</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.311119257523913</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>2.020773887586728</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.092955925834872</v>
+        <v>1.077216190618742</v>
       </c>
       <c r="C2">
-        <v>0.123607990922963</v>
+        <v>0.1176132903885261</v>
       </c>
       <c r="D2">
-        <v>0.3056838740018151</v>
+        <v>0.3007228409316554</v>
       </c>
       <c r="E2">
-        <v>0.07924844933766195</v>
+        <v>0.07637146398761985</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5304084219283638</v>
+        <v>0.4712834669491102</v>
       </c>
       <c r="H2">
-        <v>0.01340127096020319</v>
+        <v>0.01114218050487385</v>
       </c>
       <c r="I2">
-        <v>0.01387640169162285</v>
+        <v>0.01045134089011501</v>
       </c>
       <c r="J2">
-        <v>0.4468624058906201</v>
+        <v>0.4292049006198084</v>
       </c>
       <c r="K2">
-        <v>0.4966551635420871</v>
+        <v>0.4415481573304412</v>
       </c>
       <c r="L2">
-        <v>0.02501929856989626</v>
+        <v>0.1890268123291285</v>
       </c>
       <c r="M2">
-        <v>0.9565237245205367</v>
+        <v>0.1439728887225229</v>
       </c>
       <c r="N2">
-        <v>0.267870120890251</v>
+        <v>0.02384173168973414</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9817506525333783</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2846340273822818</v>
       </c>
       <c r="Q2">
-        <v>2.005400705651823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.833487998209193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9523974743739245</v>
+        <v>0.9402057560463675</v>
       </c>
       <c r="C3">
-        <v>0.1162004708902629</v>
+        <v>0.1072698806889107</v>
       </c>
       <c r="D3">
-        <v>0.2824176855140905</v>
+        <v>0.2783297078316309</v>
       </c>
       <c r="E3">
-        <v>0.07420030670055588</v>
+        <v>0.07181811628501222</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.5225238507862429</v>
+        <v>0.4691998442841054</v>
       </c>
       <c r="H3">
-        <v>0.01648648005762993</v>
+        <v>0.01377584364231893</v>
       </c>
       <c r="I3">
-        <v>0.016736831006817</v>
+        <v>0.0126430855909847</v>
       </c>
       <c r="J3">
-        <v>0.4475703221695682</v>
+        <v>0.4282543838366948</v>
       </c>
       <c r="K3">
-        <v>0.4984821442778085</v>
+        <v>0.4459130871538477</v>
       </c>
       <c r="L3">
-        <v>0.02331131506254902</v>
+        <v>0.1938868112908949</v>
       </c>
       <c r="M3">
-        <v>0.8350173973233268</v>
+        <v>0.1440627967052865</v>
       </c>
       <c r="N3">
-        <v>0.2394873681680281</v>
+        <v>0.02230829480287211</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8557856417453706</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2547385635548949</v>
       </c>
       <c r="Q3">
-        <v>1.989874349297011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.829432553204299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8658590840580871</v>
+        <v>0.8557425203530613</v>
       </c>
       <c r="C4">
-        <v>0.1116810945186657</v>
+        <v>0.1010183704530476</v>
       </c>
       <c r="D4">
-        <v>0.2682373570489034</v>
+        <v>0.2646723861505365</v>
       </c>
       <c r="E4">
-        <v>0.07108303234561397</v>
+        <v>0.06900014129547749</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.518066281310837</v>
+        <v>0.4683207697195115</v>
       </c>
       <c r="H4">
-        <v>0.01861893076153198</v>
+        <v>0.0156002731091397</v>
       </c>
       <c r="I4">
-        <v>0.01873342199399408</v>
+        <v>0.01419083947975208</v>
       </c>
       <c r="J4">
-        <v>0.4482691875653657</v>
+        <v>0.4277451659339278</v>
       </c>
       <c r="K4">
-        <v>0.4998424740273819</v>
+        <v>0.4487547876029865</v>
       </c>
       <c r="L4">
-        <v>0.02225053936908505</v>
+        <v>0.1969449333777114</v>
       </c>
       <c r="M4">
-        <v>0.7604081706182342</v>
+        <v>0.1446755356409124</v>
       </c>
       <c r="N4">
-        <v>0.2221360039430778</v>
+        <v>0.02135427574294768</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7784723148224657</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.236491808065594</v>
       </c>
       <c r="Q4">
-        <v>1.981699564986371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.827974926503956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8302265000107525</v>
+        <v>0.8209379985842418</v>
       </c>
       <c r="C5">
-        <v>0.1100144629686568</v>
+        <v>0.09868994286976118</v>
       </c>
       <c r="D5">
-        <v>0.2624093586311886</v>
+        <v>0.2590567962305386</v>
       </c>
       <c r="E5">
-        <v>0.06976844178180741</v>
+        <v>0.06780822149658761</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.5158487154308844</v>
+        <v>0.4676063247421993</v>
       </c>
       <c r="H5">
-        <v>0.01955145510583117</v>
+        <v>0.01639914331614756</v>
       </c>
       <c r="I5">
-        <v>0.01969670600459716</v>
+        <v>0.01497325339025668</v>
       </c>
       <c r="J5">
-        <v>0.4483609385612723</v>
+        <v>0.427306283423647</v>
       </c>
       <c r="K5">
-        <v>0.500031444870654</v>
+        <v>0.449569217379409</v>
       </c>
       <c r="L5">
-        <v>0.02180218563641034</v>
+        <v>0.1980198360052228</v>
       </c>
       <c r="M5">
-        <v>0.7303219612096399</v>
+        <v>0.1449675578535476</v>
       </c>
       <c r="N5">
-        <v>0.215223073234398</v>
+        <v>0.02095088549205304</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7472894020513081</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2292214688291097</v>
       </c>
       <c r="Q5">
-        <v>1.977111689809234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.826154977793905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.823932338379052</v>
+        <v>0.8147889918975011</v>
       </c>
       <c r="C6">
-        <v>0.1099463899898367</v>
+        <v>0.09854586698492795</v>
       </c>
       <c r="D6">
-        <v>0.2613521280406559</v>
+        <v>0.2580375848276617</v>
       </c>
       <c r="E6">
-        <v>0.06950140495825252</v>
+        <v>0.06756368435618754</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.5148823633846078</v>
+        <v>0.4669403714775271</v>
       </c>
       <c r="H6">
-        <v>0.01971651327117885</v>
+        <v>0.01654077489501032</v>
       </c>
       <c r="I6">
-        <v>0.01997868014997906</v>
+        <v>0.01524002914847866</v>
       </c>
       <c r="J6">
-        <v>0.448064742697305</v>
+        <v>0.4269295379643054</v>
       </c>
       <c r="K6">
-        <v>0.4995486754008134</v>
+        <v>0.4492394089772169</v>
       </c>
       <c r="L6">
-        <v>0.02171217741245357</v>
+        <v>0.1979684357497398</v>
       </c>
       <c r="M6">
-        <v>0.7257223768650078</v>
+        <v>0.1449050507571723</v>
       </c>
       <c r="N6">
-        <v>0.2142487313823978</v>
+        <v>0.02087021715381088</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7425034791498035</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2281870694523036</v>
       </c>
       <c r="Q6">
-        <v>1.974429512391538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.824064165900154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8643546340676949</v>
+        <v>0.8544108190697273</v>
       </c>
       <c r="C7">
-        <v>0.1122293835598285</v>
+        <v>0.1015262723864083</v>
       </c>
       <c r="D7">
-        <v>0.2679102547136125</v>
+        <v>0.2643781097500977</v>
       </c>
       <c r="E7">
-        <v>0.07093302397999857</v>
+        <v>0.06886648327148492</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.5163897753914881</v>
+        <v>0.469055355129349</v>
       </c>
       <c r="H7">
-        <v>0.01864881810172975</v>
+        <v>0.01563499401905424</v>
       </c>
       <c r="I7">
-        <v>0.01905279456925779</v>
+        <v>0.01455662915005007</v>
       </c>
       <c r="J7">
-        <v>0.4474115078980745</v>
+        <v>0.4231226490718996</v>
       </c>
       <c r="K7">
-        <v>0.4984342527195622</v>
+        <v>0.4469815449298871</v>
       </c>
       <c r="L7">
-        <v>0.02220265141406053</v>
+        <v>0.1960992226313394</v>
       </c>
       <c r="M7">
-        <v>0.7610887843167973</v>
+        <v>0.1442012814015712</v>
       </c>
       <c r="N7">
-        <v>0.2225149228684842</v>
+        <v>0.02130883467590028</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7789343744182133</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2367851327131802</v>
       </c>
       <c r="Q7">
-        <v>1.976348187490629</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.820199706707399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.043166284293562</v>
+        <v>1.029160670279907</v>
       </c>
       <c r="C8">
-        <v>0.1218146158059312</v>
+        <v>0.114511734057217</v>
       </c>
       <c r="D8">
-        <v>0.2973102409683293</v>
+        <v>0.2927400896290209</v>
       </c>
       <c r="E8">
-        <v>0.07733666696146813</v>
+        <v>0.07467056035856601</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.5254432208911766</v>
+        <v>0.4760390275749344</v>
       </c>
       <c r="H8">
-        <v>0.01443362791745284</v>
+        <v>0.01204637307933892</v>
       </c>
       <c r="I8">
-        <v>0.01518012178101902</v>
+        <v>0.01160753598635189</v>
       </c>
       <c r="J8">
-        <v>0.4459266110159632</v>
+        <v>0.4155178355625679</v>
       </c>
       <c r="K8">
-        <v>0.4953863271891095</v>
+        <v>0.4397057632191448</v>
       </c>
       <c r="L8">
-        <v>0.02437747511340849</v>
+        <v>0.189219742926479</v>
       </c>
       <c r="M8">
-        <v>0.9160756308818634</v>
+        <v>0.1428697739272309</v>
       </c>
       <c r="N8">
-        <v>0.2586960345099811</v>
+        <v>0.02325726131412065</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9391022665028856</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2746686682404658</v>
       </c>
       <c r="Q8">
-        <v>1.992815437009241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.816157801731023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.393991913241365</v>
+        <v>1.370607720388819</v>
       </c>
       <c r="C9">
-        <v>0.1398655787957068</v>
+        <v>0.1400660622521315</v>
       </c>
       <c r="D9">
-        <v>0.3563173897046568</v>
+        <v>0.3495048097001643</v>
       </c>
       <c r="E9">
-        <v>0.09000009909242124</v>
+        <v>0.08607682392649352</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5493324476556296</v>
+        <v>0.4874912563682656</v>
       </c>
       <c r="H9">
-        <v>0.008121215830119405</v>
+        <v>0.00667749556806313</v>
       </c>
       <c r="I9">
-        <v>0.009110230510778194</v>
+        <v>0.006930929206093062</v>
       </c>
       <c r="J9">
-        <v>0.4466956965073905</v>
+        <v>0.4160252775366473</v>
       </c>
       <c r="K9">
-        <v>0.4938627345379523</v>
+        <v>0.4308524679446606</v>
       </c>
       <c r="L9">
-        <v>0.02864312378149236</v>
+        <v>0.1781865467007542</v>
       </c>
       <c r="M9">
-        <v>1.218274136569761</v>
+        <v>0.1459022704761068</v>
       </c>
       <c r="N9">
-        <v>0.3294931765458529</v>
+        <v>0.02707524785852833</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.252403426815988</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3493510346519599</v>
       </c>
       <c r="Q9">
-        <v>2.045759817207909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.835777993515322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.648098994519302</v>
+        <v>1.618567136822719</v>
       </c>
       <c r="C10">
-        <v>0.154911366243546</v>
+        <v>0.1602640409513327</v>
       </c>
       <c r="D10">
-        <v>0.3944760033261474</v>
+        <v>0.3862643422083352</v>
       </c>
       <c r="E10">
-        <v>0.09625329715625242</v>
+        <v>0.09159748598633755</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.5604781316237393</v>
+        <v>0.504444239383659</v>
       </c>
       <c r="H10">
-        <v>0.005161897863074305</v>
+        <v>0.00423655027228742</v>
       </c>
       <c r="I10">
-        <v>0.006193926750702516</v>
+        <v>0.004849522249622318</v>
       </c>
       <c r="J10">
-        <v>0.4442997184286099</v>
+        <v>0.3934085242251868</v>
       </c>
       <c r="K10">
-        <v>0.4877242231993826</v>
+        <v>0.4175555753516242</v>
       </c>
       <c r="L10">
-        <v>0.03106720641259031</v>
+        <v>0.1677568155413205</v>
       </c>
       <c r="M10">
-        <v>1.44360473723944</v>
+        <v>0.1477984171121385</v>
       </c>
       <c r="N10">
-        <v>0.3715820408825437</v>
+        <v>0.02930724140938734</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.48430960938245</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3934654116557965</v>
       </c>
       <c r="Q10">
-        <v>2.064839656263814</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.817446889593867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.740790315225638</v>
+        <v>1.714461923204283</v>
       </c>
       <c r="C11">
-        <v>0.1746022858004466</v>
+        <v>0.1804498404741963</v>
       </c>
       <c r="D11">
-        <v>0.3627102151593249</v>
+        <v>0.3556148934855656</v>
       </c>
       <c r="E11">
-        <v>0.07595669065350918</v>
+        <v>0.07230190302947648</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4982169179878042</v>
+        <v>0.4764590395592023</v>
       </c>
       <c r="H11">
-        <v>0.0236438747569423</v>
+        <v>0.02280604831290134</v>
       </c>
       <c r="I11">
-        <v>0.006064335191476644</v>
+        <v>0.0050414904532321</v>
       </c>
       <c r="J11">
-        <v>0.4089169288755414</v>
+        <v>0.3318629733619431</v>
       </c>
       <c r="K11">
-        <v>0.436838359770217</v>
+        <v>0.3706780133247598</v>
       </c>
       <c r="L11">
-        <v>0.03066451251873037</v>
+        <v>0.1494017077927321</v>
       </c>
       <c r="M11">
-        <v>1.567943035190979</v>
+        <v>0.1320778519467432</v>
       </c>
       <c r="N11">
-        <v>0.3032600499885945</v>
+        <v>0.02997756392551665</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.605032303257815</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3211024170361441</v>
       </c>
       <c r="Q11">
-        <v>1.858956661345786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.60891059565482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.766517584593686</v>
+        <v>1.743834184901374</v>
       </c>
       <c r="C12">
-        <v>0.1885135137007694</v>
+        <v>0.1933905244514591</v>
       </c>
       <c r="D12">
-        <v>0.3292872343914865</v>
+        <v>0.3232600590669534</v>
       </c>
       <c r="E12">
-        <v>0.06091799933532371</v>
+        <v>0.05808214423510449</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4484535819928368</v>
+        <v>0.4433637096550527</v>
       </c>
       <c r="H12">
-        <v>0.06251916133663116</v>
+        <v>0.06168205676318195</v>
       </c>
       <c r="I12">
-        <v>0.005967951930981208</v>
+        <v>0.004981461686609734</v>
       </c>
       <c r="J12">
-        <v>0.3819805379101595</v>
+        <v>0.3028820480442</v>
       </c>
       <c r="K12">
-        <v>0.4001941378245988</v>
+        <v>0.3403232629441533</v>
       </c>
       <c r="L12">
-        <v>0.03577138704959992</v>
+        <v>0.1387599437937492</v>
       </c>
       <c r="M12">
-        <v>1.624332218045254</v>
+        <v>0.1204038238383518</v>
       </c>
       <c r="N12">
-        <v>0.2425202384316094</v>
+        <v>0.03581100142653071</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.657456030257208</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2571479878714342</v>
       </c>
       <c r="Q12">
-        <v>1.69712861989008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.462639069754886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.740312398969792</v>
+        <v>1.72147035410282</v>
       </c>
       <c r="C13">
-        <v>0.1995243806262863</v>
+        <v>0.2029099819147433</v>
       </c>
       <c r="D13">
-        <v>0.2924036050259957</v>
+        <v>0.2874117881351879</v>
       </c>
       <c r="E13">
-        <v>0.04887712389408172</v>
+        <v>0.04676750787107231</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4027363581010803</v>
+        <v>0.3978481142667292</v>
       </c>
       <c r="H13">
-        <v>0.1187554433868883</v>
+        <v>0.1178398044309006</v>
       </c>
       <c r="I13">
-        <v>0.006298162962107945</v>
+        <v>0.005202134265906544</v>
       </c>
       <c r="J13">
-        <v>0.3585478286491863</v>
+        <v>0.2933148072165856</v>
       </c>
       <c r="K13">
-        <v>0.3700490606364966</v>
+        <v>0.3189230350598056</v>
       </c>
       <c r="L13">
-        <v>0.04517436358018756</v>
+        <v>0.1320114866607174</v>
       </c>
       <c r="M13">
-        <v>1.632859466362873</v>
+        <v>0.1109379562060777</v>
       </c>
       <c r="N13">
-        <v>0.18516258331438</v>
+        <v>0.0457787362144586</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.662096662526665</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.197117370369142</v>
       </c>
       <c r="Q13">
-        <v>1.551120864013683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.350087566729073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.69818338735584</v>
+        <v>1.682117537938041</v>
       </c>
       <c r="C14">
-        <v>0.206251747069345</v>
+        <v>0.2083589727333077</v>
       </c>
       <c r="D14">
-        <v>0.2653461348237869</v>
+        <v>0.2610570701478139</v>
       </c>
       <c r="E14">
-        <v>0.0422703216929472</v>
+        <v>0.04062037883243441</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3727671864084101</v>
+        <v>0.3622188285308638</v>
       </c>
       <c r="H14">
-        <v>0.1685671190439564</v>
+        <v>0.1675581310758787</v>
       </c>
       <c r="I14">
-        <v>0.006830625666039758</v>
+        <v>0.005602353822351525</v>
       </c>
       <c r="J14">
-        <v>0.3437842555446551</v>
+        <v>0.2929480901985642</v>
       </c>
       <c r="K14">
-        <v>0.3520844820447984</v>
+        <v>0.3076230621252822</v>
       </c>
       <c r="L14">
-        <v>0.054392788033784</v>
+        <v>0.1287047780868864</v>
       </c>
       <c r="M14">
-        <v>1.617464263773968</v>
+        <v>0.1053855328887163</v>
       </c>
       <c r="N14">
-        <v>0.1478894310830086</v>
+        <v>0.05531072553287331</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.643992533222843</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1582154625158836</v>
       </c>
       <c r="Q14">
-        <v>1.456614001889861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.284711097498345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.676520457064214</v>
+        <v>1.661182951973473</v>
       </c>
       <c r="C15">
-        <v>0.207412770359042</v>
+        <v>0.2091801655247565</v>
       </c>
       <c r="D15">
-        <v>0.2578638921756067</v>
+        <v>0.2537552391822828</v>
       </c>
       <c r="E15">
-        <v>0.04087730838873949</v>
+        <v>0.03934184215170777</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3655808872436594</v>
+        <v>0.3514862578137041</v>
       </c>
       <c r="H15">
-        <v>0.1813027378170204</v>
+        <v>0.1802472579223178</v>
       </c>
       <c r="I15">
-        <v>0.007198153487197878</v>
+        <v>0.005923889899796642</v>
       </c>
       <c r="J15">
-        <v>0.3405664871941951</v>
+        <v>0.2954001076873354</v>
       </c>
       <c r="K15">
-        <v>0.3484038104127816</v>
+        <v>0.3059235873393238</v>
       </c>
       <c r="L15">
-        <v>0.05678628035776967</v>
+        <v>0.1283080230445908</v>
       </c>
       <c r="M15">
-        <v>1.603825772470572</v>
+        <v>0.1042934368597876</v>
       </c>
       <c r="N15">
-        <v>0.1388750455222976</v>
+        <v>0.05777804739263814</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.629702152169159</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.148851669062374</v>
       </c>
       <c r="Q15">
-        <v>1.434606194111481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.272568764858548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.57211713150312</v>
+        <v>1.557315596167683</v>
       </c>
       <c r="C16">
-        <v>0.1986182867396451</v>
+        <v>0.1999243746999753</v>
       </c>
       <c r="D16">
-        <v>0.2495756259009596</v>
+        <v>0.2456076938560727</v>
       </c>
       <c r="E16">
-        <v>0.04087091287624656</v>
+        <v>0.03941809903346627</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3691842966047219</v>
+        <v>0.3373415733701179</v>
       </c>
       <c r="H16">
-        <v>0.1698147606653322</v>
+        <v>0.168514173346793</v>
       </c>
       <c r="I16">
-        <v>0.008493475938506911</v>
+        <v>0.006896154034858881</v>
       </c>
       <c r="J16">
-        <v>0.3457157425496433</v>
+        <v>0.3214106969896662</v>
       </c>
       <c r="K16">
-        <v>0.3562089152728323</v>
+        <v>0.3169196780335746</v>
       </c>
       <c r="L16">
-        <v>0.05351973301362278</v>
+        <v>0.1327107646453101</v>
       </c>
       <c r="M16">
-        <v>1.50484264668026</v>
+        <v>0.1070991631910392</v>
       </c>
       <c r="N16">
-        <v>0.1342264664461084</v>
+        <v>0.05455941133250874</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.530652323387073</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1444426222549851</v>
       </c>
       <c r="Q16">
-        <v>1.452829242649145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.314891101456354</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.514506077304787</v>
+        <v>1.498873322484116</v>
       </c>
       <c r="C17">
-        <v>0.188294885982657</v>
+        <v>0.1896707706618628</v>
       </c>
       <c r="D17">
-        <v>0.2573588468337107</v>
+        <v>0.2531683961598645</v>
       </c>
       <c r="E17">
-        <v>0.04403045786693394</v>
+        <v>0.04240528950998002</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3876030283028484</v>
+        <v>0.3466632732694634</v>
       </c>
       <c r="H17">
-        <v>0.1327700403492287</v>
+        <v>0.1313306004350778</v>
       </c>
       <c r="I17">
-        <v>0.009247482083507563</v>
+        <v>0.007475359058690678</v>
       </c>
       <c r="J17">
-        <v>0.3574288694286025</v>
+        <v>0.3417364015861395</v>
       </c>
       <c r="K17">
-        <v>0.3714933215990577</v>
+        <v>0.331270332309705</v>
       </c>
       <c r="L17">
-        <v>0.04565196554588979</v>
+        <v>0.1382130193263755</v>
       </c>
       <c r="M17">
-        <v>1.437388098440834</v>
+        <v>0.1118667855586217</v>
       </c>
       <c r="N17">
-        <v>0.1496264626442851</v>
+        <v>0.0465343523431514</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.464237024882436</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1608281288211799</v>
       </c>
       <c r="Q17">
-        <v>1.516282857564505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.380686951952455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.491161680796239</v>
+        <v>1.473151506538727</v>
       </c>
       <c r="C18">
-        <v>0.1753937107441033</v>
+        <v>0.1773729255034908</v>
       </c>
       <c r="D18">
-        <v>0.2807174138441297</v>
+        <v>0.2758801273182598</v>
       </c>
       <c r="E18">
-        <v>0.05195329247755431</v>
+        <v>0.04985209033296023</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4233545941601378</v>
+        <v>0.3744044904064339</v>
       </c>
       <c r="H18">
-        <v>0.08010841958508763</v>
+        <v>0.07863356578997127</v>
       </c>
       <c r="I18">
-        <v>0.009209146436854887</v>
+        <v>0.007337468176853434</v>
       </c>
       <c r="J18">
-        <v>0.3773058589456468</v>
+        <v>0.363481658156843</v>
       </c>
       <c r="K18">
-        <v>0.3972784275818952</v>
+        <v>0.3527670673872265</v>
       </c>
       <c r="L18">
-        <v>0.03567288852170947</v>
+        <v>0.1463333334944057</v>
       </c>
       <c r="M18">
-        <v>1.388514600913282</v>
+        <v>0.1196538596069985</v>
       </c>
       <c r="N18">
-        <v>0.1872563258681339</v>
+        <v>0.03615360815096835</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.417881781304942</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2004516369696034</v>
       </c>
       <c r="Q18">
-        <v>1.633632416863975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.485496896573878</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.494827979503782</v>
+        <v>1.473334962769741</v>
       </c>
       <c r="C19">
-        <v>0.1637802878107522</v>
+        <v>0.1667362624069852</v>
       </c>
       <c r="D19">
-        <v>0.3157889580285058</v>
+        <v>0.3099442804643928</v>
       </c>
       <c r="E19">
-        <v>0.06546832137510883</v>
+        <v>0.06259667914106792</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4705528514815143</v>
+        <v>0.4132199521561617</v>
       </c>
       <c r="H19">
-        <v>0.03432654281830594</v>
+        <v>0.03292442149177077</v>
       </c>
       <c r="I19">
-        <v>0.009097722365492444</v>
+        <v>0.007310551846549274</v>
       </c>
       <c r="J19">
-        <v>0.4021641864744154</v>
+        <v>0.3860890342124321</v>
       </c>
       <c r="K19">
-        <v>0.430226002234221</v>
+        <v>0.3789552494651751</v>
       </c>
       <c r="L19">
-        <v>0.02891622111574943</v>
+        <v>0.1561159815165549</v>
       </c>
       <c r="M19">
-        <v>1.360593372752533</v>
+        <v>0.1294798430818194</v>
       </c>
       <c r="N19">
-        <v>0.2462009574845467</v>
+        <v>0.02871020374098698</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.393548558485776</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.262333158455192</v>
       </c>
       <c r="Q19">
-        <v>1.785729214058478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.614732089021928</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.5780100744403</v>
+        <v>1.549768976806945</v>
       </c>
       <c r="C20">
-        <v>0.1529020304098836</v>
+        <v>0.1577470971241866</v>
       </c>
       <c r="D20">
-        <v>0.3834025649716466</v>
+        <v>0.3755097668515219</v>
       </c>
       <c r="E20">
-        <v>0.09408886102124114</v>
+        <v>0.0896180681225367</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.5520761526748856</v>
+        <v>0.4866782488396382</v>
       </c>
       <c r="H20">
-        <v>0.005865176099315583</v>
+        <v>0.004799032659219549</v>
       </c>
       <c r="I20">
-        <v>0.007765566233871368</v>
+        <v>0.006354919500780376</v>
       </c>
       <c r="J20">
-        <v>0.4420901109056956</v>
+        <v>0.4090328682229654</v>
       </c>
       <c r="K20">
-        <v>0.4847930283433861</v>
+        <v>0.4188724693970443</v>
       </c>
       <c r="L20">
-        <v>0.03027662679127729</v>
+        <v>0.1696593721620587</v>
       </c>
       <c r="M20">
-        <v>1.387959745550518</v>
+        <v>0.1463393723522017</v>
       </c>
       <c r="N20">
-        <v>0.3615407234288028</v>
+        <v>0.02860641820899268</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.427606497091261</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3831460797126596</v>
       </c>
       <c r="Q20">
-        <v>2.042281086647762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.816350030914734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.77719549574968</v>
+        <v>1.745819347526322</v>
       </c>
       <c r="C21">
-        <v>0.1622976236479445</v>
+        <v>0.1686953309255728</v>
       </c>
       <c r="D21">
-        <v>0.4219541993735305</v>
+        <v>0.4131753435730303</v>
       </c>
       <c r="E21">
-        <v>0.1034726946818694</v>
+        <v>0.09840974051077112</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.5745771093942835</v>
+        <v>0.5581865956545187</v>
       </c>
       <c r="H21">
-        <v>0.003529024270844894</v>
+        <v>0.002879595352800912</v>
       </c>
       <c r="I21">
-        <v>0.005685284788963685</v>
+        <v>0.004888537868921183</v>
       </c>
       <c r="J21">
-        <v>0.4474476224475836</v>
+        <v>0.3412672704628932</v>
       </c>
       <c r="K21">
-        <v>0.4901716142555124</v>
+        <v>0.4077012573319045</v>
       </c>
       <c r="L21">
-        <v>0.03321369958534337</v>
+        <v>0.161670244784176</v>
       </c>
       <c r="M21">
-        <v>1.557002569779115</v>
+        <v>0.1478302847272701</v>
       </c>
       <c r="N21">
-        <v>0.4103470460934489</v>
+        <v>0.03110555215808208</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.598680205025204</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4328121574267811</v>
       </c>
       <c r="Q21">
-        <v>2.101550684098356</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.788260652621261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.907521820096775</v>
+        <v>1.874462598939857</v>
       </c>
       <c r="C22">
-        <v>0.1683462669721081</v>
+        <v>0.17545433787474</v>
       </c>
       <c r="D22">
-        <v>0.4447145796075631</v>
+        <v>0.4354884473220864</v>
       </c>
       <c r="E22">
-        <v>0.1082849816268094</v>
+        <v>0.1029356953557858</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5878696148186719</v>
+        <v>0.6117520172970359</v>
       </c>
       <c r="H22">
-        <v>0.002442560824637341</v>
+        <v>0.001999353708549645</v>
       </c>
       <c r="I22">
-        <v>0.004290178990455473</v>
+        <v>0.003754782584453054</v>
       </c>
       <c r="J22">
-        <v>0.4502846344460778</v>
+        <v>0.3026851317834058</v>
       </c>
       <c r="K22">
-        <v>0.4928424275778589</v>
+        <v>0.399171365925806</v>
       </c>
       <c r="L22">
-        <v>0.03485175138308172</v>
+        <v>0.1562298172535552</v>
       </c>
       <c r="M22">
-        <v>1.667391303052852</v>
+        <v>0.1485422264310579</v>
       </c>
       <c r="N22">
-        <v>0.4362956732109069</v>
+        <v>0.03253457194942211</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.709784355454303</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4589320019910303</v>
       </c>
       <c r="Q22">
-        <v>2.135891855858631</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.762423554926215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.839228648478183</v>
+        <v>1.806660071454644</v>
       </c>
       <c r="C23">
-        <v>0.1643839309878814</v>
+        <v>0.1713057825243709</v>
       </c>
       <c r="D23">
-        <v>0.4328451277067984</v>
+        <v>0.4237730207671007</v>
       </c>
       <c r="E23">
-        <v>0.1058720012605647</v>
+        <v>0.1006327265916234</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5826155320622348</v>
+        <v>0.5776412286218715</v>
       </c>
       <c r="H23">
-        <v>0.002989070520339143</v>
+        <v>0.002436583268655368</v>
       </c>
       <c r="I23">
-        <v>0.004671802394954128</v>
+        <v>0.003936638995493347</v>
       </c>
       <c r="J23">
-        <v>0.4497116297879842</v>
+        <v>0.3290132123737379</v>
       </c>
       <c r="K23">
-        <v>0.4929829815166151</v>
+        <v>0.4062303285293538</v>
       </c>
       <c r="L23">
-        <v>0.03402495597030786</v>
+        <v>0.1599352644713452</v>
       </c>
       <c r="M23">
-        <v>1.607130577384282</v>
+        <v>0.1492030459165115</v>
       </c>
       <c r="N23">
-        <v>0.4218590880281425</v>
+        <v>0.03181426766567341</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.649689540817462</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4446222023915851</v>
       </c>
       <c r="Q23">
-        <v>2.123435733204502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.788374436249711</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.578561875706214</v>
+        <v>1.549921276465142</v>
       </c>
       <c r="C24">
-        <v>0.1506703230345039</v>
+        <v>0.1552646064362762</v>
       </c>
       <c r="D24">
-        <v>0.3877590912625948</v>
+        <v>0.3797287041908248</v>
       </c>
       <c r="E24">
-        <v>0.09648156306836242</v>
+        <v>0.09188955058136372</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5607915858969079</v>
+        <v>0.4938235352811091</v>
       </c>
       <c r="H24">
-        <v>0.005638768777854242</v>
+        <v>0.004584466796140718</v>
       </c>
       <c r="I24">
-        <v>0.007198271106672038</v>
+        <v>0.005695183743491761</v>
       </c>
       <c r="J24">
-        <v>0.4466433009944097</v>
+        <v>0.4135426914757829</v>
       </c>
       <c r="K24">
-        <v>0.4916108715156469</v>
+        <v>0.4245253441657795</v>
       </c>
       <c r="L24">
-        <v>0.03083571260573592</v>
+        <v>0.1717739019723687</v>
       </c>
       <c r="M24">
-        <v>1.381432135132258</v>
+        <v>0.148451442668847</v>
       </c>
       <c r="N24">
-        <v>0.3683756154323987</v>
+        <v>0.02903658213432614</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.421421856566269</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3903623476506652</v>
       </c>
       <c r="Q24">
-        <v>2.070286383025092</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.840938094319426</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.297334429453343</v>
+        <v>1.276449736560949</v>
       </c>
       <c r="C25">
-        <v>0.1360184800493016</v>
+        <v>0.1345252189539963</v>
       </c>
       <c r="D25">
-        <v>0.3397964793036721</v>
+        <v>0.3335859864775585</v>
       </c>
       <c r="E25">
-        <v>0.08634853777497398</v>
+        <v>0.08276859902358069</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5395711379960488</v>
+        <v>0.4780832112065099</v>
       </c>
       <c r="H25">
-        <v>0.009623828993461661</v>
+        <v>0.007944045239259845</v>
       </c>
       <c r="I25">
-        <v>0.01103317150424665</v>
+        <v>0.008583914180825936</v>
       </c>
       <c r="J25">
-        <v>0.4447316621301809</v>
+        <v>0.4195792766236508</v>
       </c>
       <c r="K25">
-        <v>0.4915667447328822</v>
+        <v>0.4316292575528387</v>
       </c>
       <c r="L25">
-        <v>0.02741913934640827</v>
+        <v>0.1805243109803492</v>
       </c>
       <c r="M25">
-        <v>1.138456416275858</v>
+        <v>0.1440828110210255</v>
       </c>
       <c r="N25">
-        <v>0.311119257523913</v>
+        <v>0.02598968579441241</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.169824949276915</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3300092927448333</v>
       </c>
       <c r="Q25">
-        <v>2.020773887586728</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.8249253280879</v>
       </c>
     </row>
   </sheetData>
